--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z239"/>
+  <dimension ref="A1:Z240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25843-2021</t>
+          <t>A 62471-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44343</v>
+        <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,145 +806,145 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Kryddspindling
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 25843-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bårdlav
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62471-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45268</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Kryddspindling
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 13834-2025</t>
+          <t>A 39250-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45737</v>
+        <v>45551.31601851852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -958,20 +958,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>8.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -996,308 +996,308 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 34170-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45845.58730324074</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 13834-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Slåtterfibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 39250-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45551.31601851852</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 33377-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 33377-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45128</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Gul taggsvamp</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 34170-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45845.58730324074</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41468-2024</t>
+          <t>A 56825-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45560</v>
+        <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,13 +1495,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>14.2</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1513,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1525,483 +1520,488 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 41468-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 55711-2024</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45622.69902777778</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 56825-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44480</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44449</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4033,14 +4033,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 38906-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>44816.60269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4095,14 +4095,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 12233-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45846</v>
+        <v>44635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4152,14 +4152,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38906-2022</t>
+          <t>A 67361-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44816.60269675926</v>
+        <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4171,13 +4171,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4214,14 +4209,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12233-2022</t>
+          <t>A 2312-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44635</v>
+        <v>44578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4271,14 +4266,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 67361-2021</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44523</v>
+        <v>44480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4291,7 +4286,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4328,14 +4323,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2312-2022</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44578</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4343,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4380,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,13 +4399,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4447,14 +4437,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44264</v>
+        <v>45631</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4466,13 +4456,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4509,14 +4494,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45799</v>
+        <v>45196</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4519,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4571,14 +4556,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44523</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4591,7 +4576,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4628,14 +4613,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45405</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4648,7 +4633,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4685,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4704,13 +4689,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4747,14 +4727,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45210</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4766,8 +4746,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4804,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45091</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4823,13 +4808,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4866,14 +4846,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4887,11 +4867,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4928,14 +4908,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45583</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4947,8 +4927,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4985,14 +4970,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5004,8 +4989,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5042,14 +5032,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5061,13 +5051,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>15.5</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5104,14 +5089,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45714</v>
+        <v>45154</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5123,13 +5108,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>15.4</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5166,14 +5146,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45793</v>
+        <v>45226</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5185,8 +5165,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5223,14 +5208,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44860</v>
+        <v>45363</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5243,7 +5228,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.8</v>
+        <v>2.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5280,14 +5265,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44356</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5300,7 +5285,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5337,14 +5322,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5356,8 +5341,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5394,14 +5384,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5419,7 +5409,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5456,14 +5446,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>45567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5476,7 +5466,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5513,14 +5503,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5533,7 +5523,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5570,14 +5560,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>44356</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5589,13 +5579,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5632,14 +5617,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45553</v>
+        <v>45799</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5642,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5694,14 +5679,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45551</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5715,11 +5700,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5756,14 +5741,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44852</v>
+        <v>44264</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5775,8 +5760,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5813,14 +5803,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45191</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5832,13 +5822,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5875,14 +5860,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5895,7 +5880,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5932,14 +5917,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5937,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5989,14 +5974,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45576</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +5994,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6046,14 +6031,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>45316</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6051,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6103,14 +6088,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44550</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6122,13 +6107,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>10.1</v>
+        <v>3.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6172,7 +6152,7 @@
         <v>45908.36978009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6227,14 +6207,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6246,8 +6226,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6284,14 +6269,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45093</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6304,7 +6289,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6341,14 +6326,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45320</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,8 +6345,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6398,14 +6388,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45989</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,8 +6407,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>23.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6455,14 +6450,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6475,7 +6470,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6512,14 +6507,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45154</v>
+        <v>45179</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6531,8 +6526,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6569,14 +6569,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6626,14 +6626,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>44550</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,8 +6645,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6683,14 +6688,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44873</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6702,8 +6707,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6740,14 +6750,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46019</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6759,8 +6769,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6797,14 +6812,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46019</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6816,8 +6831,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6861,7 +6881,7 @@
         <v>45918</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6911,14 +6931,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44244</v>
+        <v>44691</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,8 +6950,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>10.4</v>
+        <v>4.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6968,14 +6993,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6993,7 +7018,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7030,14 +7055,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44973</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7049,8 +7074,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7087,14 +7117,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45169</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7108,11 +7138,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7149,14 +7179,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46018</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7199,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>22.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7206,14 +7236,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7227,11 +7257,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7268,14 +7298,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7287,13 +7317,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7330,14 +7355,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44480</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7349,8 +7374,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>15.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7387,14 +7417,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7407,7 +7437,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7444,14 +7474,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46020</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7464,7 +7494,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7501,14 +7531,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45737</v>
+        <v>45839</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7520,13 +7550,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7563,14 +7588,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>45405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7583,7 +7608,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7620,14 +7645,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45056</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7639,8 +7664,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7677,14 +7707,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45554</v>
+        <v>44860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7697,7 +7727,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7734,14 +7764,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45408</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7753,13 +7783,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>8.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7796,14 +7821,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46045</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7816,7 +7841,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7853,14 +7878,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7873,7 +7898,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7910,14 +7935,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7929,8 +7954,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7967,14 +7997,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7987,7 +8017,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8031,7 +8061,7 @@
         <v>44938.65002314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8081,14 +8111,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8101,7 +8131,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8138,14 +8168,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45631</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8158,7 +8188,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8195,14 +8225,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45405</v>
+        <v>45846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8215,7 +8245,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.7</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8252,14 +8282,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>44992</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8271,13 +8301,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8314,14 +8339,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44992</v>
+        <v>45957</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8334,7 +8359,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>8.300000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8371,14 +8396,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44473</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8390,8 +8415,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8428,14 +8458,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 8205-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44973</v>
+        <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8447,13 +8477,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>10.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8490,14 +8515,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>45093</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8510,7 +8535,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.3</v>
+        <v>3.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8547,14 +8572,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8566,8 +8591,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8604,14 +8634,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8623,13 +8653,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8666,14 +8691,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8686,7 +8711,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8723,14 +8748,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8743,7 +8768,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8780,14 +8805,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45583</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8801,11 +8826,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>15.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8842,14 +8867,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46014</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8861,8 +8886,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>22.8</v>
+        <v>15</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8899,14 +8929,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45957</v>
+        <v>45793</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8919,7 +8949,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8956,14 +8986,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8976,7 +9006,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9013,14 +9043,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46014</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9033,7 +9063,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9070,14 +9100,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45598</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9091,11 +9121,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9132,14 +9162,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>44349</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9152,7 +9182,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9189,14 +9219,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45597</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9209,7 +9239,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9246,14 +9276,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45363</v>
+        <v>45974</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9266,7 +9296,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9303,14 +9333,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>45598</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9322,8 +9352,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9360,14 +9395,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9379,13 +9414,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9422,14 +9452,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9441,8 +9471,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9479,14 +9514,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45588</v>
+        <v>45737</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9498,8 +9533,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9536,14 +9576,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45974</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9556,7 +9596,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9593,14 +9633,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9613,7 +9653,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9650,14 +9690,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45607</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9670,7 +9710,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>0.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9707,14 +9747,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9726,8 +9766,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9764,14 +9809,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45989</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9783,13 +9828,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9826,14 +9866,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45142</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9845,13 +9885,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9888,14 +9923,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45631</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9908,7 +9943,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9945,14 +9980,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45567</v>
+        <v>45142</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9964,8 +9999,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10002,14 +10042,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10019,6 +10059,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -10059,14 +10104,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10078,13 +10123,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10121,14 +10161,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10141,7 +10181,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10178,14 +10218,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44349</v>
+        <v>46019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10198,7 +10238,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10235,14 +10275,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>46019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10254,13 +10294,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10297,14 +10332,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>44852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10317,7 +10352,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10354,14 +10389,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>44973</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10374,7 +10409,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10411,14 +10446,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45618</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10430,8 +10465,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10468,14 +10508,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44480</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10487,8 +10527,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10525,14 +10570,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10544,8 +10589,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10582,14 +10632,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45320</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10601,13 +10651,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10644,14 +10689,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10664,7 +10709,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10701,14 +10746,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45091</v>
+        <v>45454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10721,7 +10766,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10758,14 +10803,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45440</v>
+        <v>44473</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10778,7 +10823,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10815,14 +10860,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45196</v>
+        <v>46018</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10834,13 +10879,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10877,14 +10917,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45232</v>
+        <v>46020</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10896,13 +10936,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10939,14 +10974,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45639</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10958,8 +10993,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10996,14 +11036,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45408</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11015,13 +11055,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11058,14 +11093,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11078,7 +11113,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11115,14 +11150,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>45408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11134,8 +11169,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11172,14 +11212,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>46045</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11191,13 +11231,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11234,14 +11269,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45155</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11253,13 +11288,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>7.6</v>
+        <v>3.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11296,14 +11326,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45679</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11316,7 +11346,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11353,14 +11383,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45169</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11372,13 +11402,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11415,14 +11440,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11435,7 +11460,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11472,14 +11497,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45226</v>
+        <v>45056</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11491,13 +11516,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11534,14 +11554,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11553,8 +11573,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11591,14 +11616,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11636,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11648,14 +11673,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45631</v>
+        <v>45639</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11693,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11705,14 +11730,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11750,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11762,14 +11787,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45769</v>
+        <v>45588</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11781,13 +11806,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11824,14 +11844,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>44973</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11849,7 +11869,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11886,14 +11906,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>46014</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11906,7 +11926,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>22.4</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11943,14 +11963,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>46014</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11962,13 +11982,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>15.9</v>
+        <v>22.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12005,14 +12020,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45576</v>
+        <v>44328</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12024,8 +12039,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12062,14 +12082,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12082,7 +12102,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>33.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12119,14 +12139,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>45034</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12138,8 +12158,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12176,14 +12201,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>45155</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12195,8 +12220,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12233,14 +12263,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45200</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12252,13 +12282,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12295,14 +12320,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44816</v>
+        <v>45554</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12314,13 +12339,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>20.5</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12357,14 +12377,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45210</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12376,13 +12396,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12419,14 +12434,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45551</v>
+        <v>45598</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12440,11 +12455,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12481,14 +12496,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45408</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12502,11 +12517,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12543,14 +12558,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45598</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12568,7 +12583,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12605,14 +12620,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12626,11 +12641,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12667,14 +12682,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45056</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12686,8 +12701,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>9.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12724,14 +12744,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45233</v>
+        <v>45553</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12745,11 +12765,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12786,14 +12806,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45454</v>
+        <v>44873</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12806,7 +12826,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12843,14 +12863,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45454</v>
+        <v>45200</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12862,8 +12882,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12900,14 +12925,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45714</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,11 +12946,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>7.5</v>
+        <v>15.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12962,14 +12987,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45769</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12983,11 +13008,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13024,14 +13049,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45588</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13044,7 +13069,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13081,14 +13106,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45179</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13100,13 +13125,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13143,14 +13163,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45607</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13162,8 +13182,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.1</v>
+        <v>4.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13200,14 +13225,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>45588</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13219,13 +13244,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13262,14 +13282,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45632</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13281,8 +13301,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13319,14 +13344,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44328</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13338,13 +13363,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13381,14 +13401,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13400,13 +13420,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13443,14 +13458,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45316</v>
+        <v>45049</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13463,7 +13478,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13500,14 +13515,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45567</v>
+        <v>44523</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13520,7 +13535,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13557,14 +13572,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45632</v>
+        <v>45405</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13576,13 +13591,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>4.7</v>
+        <v>7.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13619,14 +13629,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44691</v>
+        <v>45233</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13640,11 +13650,11 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13681,14 +13691,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>44816</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13700,8 +13710,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.5</v>
+        <v>20.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13738,14 +13753,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13758,7 +13773,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13795,14 +13810,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45597</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13815,7 +13830,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13852,14 +13867,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45034</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13871,13 +13886,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>8.1</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13914,14 +13924,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44992</v>
+        <v>45567</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13934,7 +13944,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13971,14 +13981,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45777</v>
+        <v>45618</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13990,13 +14000,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14033,14 +14038,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45191</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14058,7 +14063,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14095,14 +14100,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45196</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14114,13 +14119,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14157,14 +14157,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14176,8 +14176,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14214,14 +14219,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>44992</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14233,13 +14238,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14276,14 +14276,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45740</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14333,14 +14333,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14354,11 +14354,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14395,14 +14395,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14414,13 +14414,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14457,14 +14452,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14476,8 +14471,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14514,14 +14514,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14535,11 +14535,11 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>9.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14576,14 +14576,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45440</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14633,14 +14633,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14654,11 +14654,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14695,14 +14695,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45191</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14716,11 +14716,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14757,14 +14757,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45196</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14782,7 +14782,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>23.8</v>
+        <v>3.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14819,14 +14819,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14838,13 +14838,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>9.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14881,14 +14876,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14902,11 +14897,11 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14943,14 +14938,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45740</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14962,13 +14957,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15005,14 +14995,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15026,11 +15016,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15064,17 +15054,17 @@
       </c>
       <c r="R238" s="2" t="inlineStr"/>
     </row>
-    <row r="239">
+    <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45839</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15086,8 +15076,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15120,6 +15115,68 @@
         <v>0</v>
       </c>
       <c r="R239" s="2" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>A 45290-2024</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>45576.39340277778</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45551.31601851852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45845.58730324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45737</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>45744.34909722222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45762.70241898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>45622.69902777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44449</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44687.55239583334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>45699.42703703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>45631</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45196</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45607.4571875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44859.69474537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45210</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45091</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45155.67111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45583</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45737.55307870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45420.56232638889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45154</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45226</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45363</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45705.37321759259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45583.3955324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45200.55300925926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45274.67429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44356</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45799</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>45551</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44264</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45740.45893518518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45740.50429398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45730.68177083333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45576</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45316</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45825.43447916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>45908.36978009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45827.36601851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45274.68616898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45827.34989583334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45827.34599537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>45740.50280092593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>45179</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>45586.42438657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44550</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45827.36146990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45827.35523148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45827.37133101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45918</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44691</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>45583.39818287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>45169.34457175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>45169</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45001.40960648148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45832.54032407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44628.72158564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45155.35126157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45729.3569212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45931.36364583333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45839</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45769.39085648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45937.59658564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45937.58998842593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45091.36854166666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44938.65002314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45952.37326388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45631</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>45846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44992</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>45957</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>45205.78081018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45093</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45881.66729166666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45881.38631944444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45817.47966435185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>45882.33378472222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45882.33851851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45793</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>45966.40912037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>45973.57314814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45882.34303240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44349</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45597</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45974</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45598</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45537.30190972222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45978.31872685185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45737</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45103.56412037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45985.63418981482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45607</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45607.46363425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45989</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45964.53953703704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45950.6121875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45142</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45764.52758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45964.48070601852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45964.50170138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>46019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>46019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44973</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>45994.78494212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>45994.81884259259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>45994.93306712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>45320</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>45454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44473</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>46018</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>46020</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45752.38246527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45554.60052083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45769.65043981482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>45408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>46045</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>46006.4887962963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>46008.97306712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>46008.97842592592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>46008.98494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45056</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45155.66938657407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45639</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45474.65596064815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45588</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44973</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>46014</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>46014</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44328</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>46059.36799768519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45034</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45155</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45474.67520833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45554</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45613.46733796296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45598</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45408</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45169.35862268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45560.40017361111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45553.41510416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>45553</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44873</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>45200</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45714</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45769</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45089.5619212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45469.59916666667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45737.55372685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45588</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45632</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45063.55581018519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45607.46585648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45049</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44523</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45405</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45233</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44816</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45121.37228009259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45028.39668981481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45089.46127314815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45567</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45618</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44727.31997685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45607.46910879629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45748.66413194445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44992</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>45049.32165509259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45169.34836805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45169.34711805556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>45169.35931712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45440</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45191</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45196</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45390.4814699074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45789.43600694444</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45740</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45792.36696759259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45792.35083333333</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45576.39340277778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45551.31601851852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45845.58730324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45737</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>45744.34909722222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45762.70241898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>45622.69902777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44449</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>44687.55239583334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>45699.42703703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>45631</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45196</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45607.4571875</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44859.69474537037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45210</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45091</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45155.67111111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45583</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         <v>45737.55307870371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45420.56232638889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45154</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>45226</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45363</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45705.37321759259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45583.3955324074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45200.55300925926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>45567</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45274.67429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
         <v>44356</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>45799</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>45551</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>44264</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45740.45893518518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
         <v>45740.50429398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45730.68177083333</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45576</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45316</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45825.43447916667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6152,7 +6152,7 @@
         <v>45908.36978009259</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         <v>45827.36601851852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
         <v>45274.68616898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         <v>45827.34989583334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45827.34599537037</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>45740.50280092593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>45179</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>45586.42438657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>44550</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>45827.36146990741</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>45827.35523148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>45827.37133101852</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>45918</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>44691</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>45583.39818287037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>45169.34457175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>45169</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>45001.40960648148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>45832.54032407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44628.72158564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>45155.35126157408</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45729.3569212963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45931.36364583333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45839</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45405</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45769.39085648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>44860</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45937.59658564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>45937.58998842593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>45091.36854166666</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>45232</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45679</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44938.65002314815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>45952.37326388889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>45631</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>45846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44992</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>45957</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>45205.78081018518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8465,7 +8465,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8522,7 +8522,7 @@
         <v>45093</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>45881.66729166666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>45881.38631944444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>45817.47966435185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>45882.33378472222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         <v>45882.33851851852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>45793</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>45966.40912037037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>45973.57314814815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>45882.34303240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         <v>44349</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>45597</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>45974</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>45598</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45537.30190972222</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45978.31872685185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>45737</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45103.56412037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45985.63418981482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45607</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45607.46363425926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45989</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45964.53953703704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45950.6121875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45142</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>45764.52758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45964.48070601852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45964.50170138889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>46019</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>46019</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44973</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>45994.78494212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>45994.81884259259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>45994.93306712963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>45320</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
         <v>45454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         <v>45454</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44473</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>46018</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>46020</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>45752.38246527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>45554.60052083333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>45769.65043981482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>45408</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>46045</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>46006.4887962963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>46008.97306712963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11390,7 +11390,7 @@
         <v>46008.97842592592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
         <v>46008.98494212963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         <v>45056</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11561,7 +11561,7 @@
         <v>45155.66938657407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>45056</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45639</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45474.65596064815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>45588</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44973</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>46014</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>46014</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44328</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>46059.36799768519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>45034</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>45155</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>45474.67520833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>45554</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>45613.46733796296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>45598</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45408</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12565,7 +12565,7 @@
         <v>45169.35862268518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45560.40017361111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45553.41510416667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>45553</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44873</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         <v>45200</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>45714</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>45769</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13056,7 +13056,7 @@
         <v>45089.5619212963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>45469.59916666667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>45737.55372685185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>45588</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>45632</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>45063.55581018519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>45607.46585648148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>45049</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>44523</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13579,7 +13579,7 @@
         <v>45405</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         <v>45233</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>44816</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45121.37228009259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45028.39668981481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45089.46127314815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45567</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>45618</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44727.31997685185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45607.46910879629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45748.66413194445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44992</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14283,7 +14283,7 @@
         <v>45049.32165509259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14340,7 +14340,7 @@
         <v>45169.34836805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>44480</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45169.34711805556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>45169.35931712963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>45440</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>45777</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14702,7 +14702,7 @@
         <v>45191</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>45196</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>45390.4814699074</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>45789.43600694444</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>45740</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15002,7 +15002,7 @@
         <v>45792.36696759259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45792.35083333333</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>45576.39340277778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62471-2023</t>
+          <t>A 25843-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45268</v>
+        <v>44343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,145 +806,145 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Bårdlav
+Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62471-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Kryddspindling
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 25843-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Bårdlav
-Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 39250-2024</t>
+          <t>A 34170-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45551.31601851852</v>
+        <v>45845.58730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -958,20 +958,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.9</v>
+        <v>11.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -996,217 +996,217 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 13834-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 39250-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45551.31601851852</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp
 Tallticka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 34170-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45845.58730324074</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 13834-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 56825-2021</t>
+          <t>A 41468-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44480</v>
+        <v>45560</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,8 +1495,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>14.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1508,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1520,488 +1525,483 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 55711-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45622.69902777778</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 56825-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44480</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H13" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 41468-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 55711-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45622.69902777778</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44449</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,14 +4152,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 67361-2021</t>
+          <t>A 2312-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44523</v>
+        <v>44578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4209,14 +4209,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2312-2022</t>
+          <t>A 67361-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44578</v>
+        <v>44523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4266,14 +4266,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44480</v>
+        <v>45405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4323,14 +4323,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>44264</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4342,8 +4342,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4380,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>44523</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4400,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4437,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45631</v>
+        <v>44860</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4457,7 +4462,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4494,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45196</v>
+        <v>44356</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4513,13 +4518,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4556,14 +4556,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>44550</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,8 +4689,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>10.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4727,14 +4732,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45210</v>
+        <v>45093</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4746,13 +4751,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45091</v>
+        <v>45320</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>44873</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4865,13 +4865,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4908,14 +4903,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45583</v>
+        <v>45154</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4927,13 +4922,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4970,14 +4960,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4995,7 +4985,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5032,14 +5022,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>44973</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,7 +5042,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5089,14 +5079,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45154</v>
+        <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5109,7 +5099,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5146,14 +5136,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45226</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5165,13 +5155,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5208,14 +5193,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45363</v>
+        <v>45737</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5225,6 +5210,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -5265,14 +5255,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45056</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5285,7 +5275,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5322,14 +5312,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45554</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5341,13 +5331,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5384,14 +5369,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5403,13 +5388,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5446,14 +5426,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45567</v>
+        <v>45408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5465,8 +5445,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5503,14 +5488,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5523,7 +5508,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5560,14 +5545,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44356</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5580,7 +5565,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5617,14 +5602,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45799</v>
+        <v>45405</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5636,13 +5621,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5679,14 +5659,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45551</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5700,11 +5680,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5741,14 +5721,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44264</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5758,11 +5738,6 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -5803,14 +5778,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5822,8 +5797,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5860,14 +5840,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5879,8 +5859,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5917,14 +5902,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5936,8 +5921,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>4.6</v>
+        <v>23.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5974,14 +5964,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45576</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5993,8 +5983,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6031,14 +6026,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45316</v>
+        <v>44473</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6051,7 +6046,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6088,14 +6083,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6107,8 +6102,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6145,14 +6145,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>44973</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6207,14 +6207,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6269,14 +6269,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,8 +6288,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6326,14 +6331,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45583</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6347,11 +6352,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6388,14 +6393,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6409,11 +6414,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>23.8</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6450,14 +6455,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45799</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6469,8 +6474,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6507,14 +6517,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45179</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6526,13 +6536,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6569,14 +6574,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45598</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6588,8 +6593,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6626,14 +6636,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44550</v>
+        <v>45839</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6645,13 +6655,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>10.1</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6688,14 +6693,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6707,13 +6712,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>8.300000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6750,14 +6750,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6769,13 +6769,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6812,14 +6807,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45363</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6831,13 +6826,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>9.800000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6874,14 +6864,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6893,8 +6883,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6931,14 +6926,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44691</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6950,13 +6945,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6993,14 +6983,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7014,11 +7004,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7055,14 +7045,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45846</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7074,13 +7064,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7117,14 +7102,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45169</v>
+        <v>45142</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7138,11 +7123,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7179,14 +7164,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>45631</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7199,7 +7184,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>22.4</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7236,14 +7221,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7261,7 +7246,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7298,14 +7283,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45918</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7318,7 +7303,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7355,14 +7340,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7380,7 +7365,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7417,14 +7402,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7436,8 +7421,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7474,14 +7464,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7494,7 +7484,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7531,14 +7521,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45839</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7551,7 +7541,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7588,14 +7578,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45405</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7607,8 +7597,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>5.3</v>
+        <v>15.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7645,14 +7640,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>45793</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7664,13 +7659,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7707,14 +7697,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44860</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7727,7 +7717,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.8</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7764,14 +7754,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7784,7 +7774,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7821,14 +7811,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>44349</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7841,7 +7831,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7878,14 +7868,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7898,7 +7888,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7935,14 +7925,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45232</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7954,13 +7944,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7997,14 +7982,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45679</v>
+        <v>44480</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8017,7 +8002,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8054,14 +8039,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8073,8 +8058,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8111,14 +8101,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8130,8 +8120,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8168,14 +8163,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45631</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8188,7 +8183,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8225,14 +8220,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45846</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8244,8 +8239,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8282,14 +8282,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44992</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8301,8 +8301,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>8.300000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8339,14 +8344,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45957</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8359,7 +8364,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8396,14 +8401,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8415,13 +8420,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8458,14 +8458,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44244</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>10.4</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8515,14 +8515,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45093</v>
+        <v>45714</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8534,8 +8534,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.8</v>
+        <v>15.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8572,14 +8577,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45191</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8593,11 +8598,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8634,14 +8639,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8654,7 +8659,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8691,14 +8696,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8711,7 +8716,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8748,14 +8753,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8768,7 +8773,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8805,14 +8810,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8826,11 +8831,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>15.5</v>
+        <v>9.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8867,14 +8872,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45553</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8888,11 +8893,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8929,14 +8934,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45793</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8948,8 +8953,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8986,14 +8996,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9043,14 +9053,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>44852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9063,7 +9073,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9100,14 +9110,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45191</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9121,11 +9131,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9162,14 +9172,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44349</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9182,7 +9192,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9219,14 +9229,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 8205-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45597</v>
+        <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9239,7 +9249,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.1</v>
+        <v>10.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9276,14 +9286,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45974</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9296,7 +9306,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9333,14 +9343,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45598</v>
+        <v>44992</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9352,13 +9362,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9395,14 +9400,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9415,7 +9420,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9452,14 +9457,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45974</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9471,13 +9476,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9514,14 +9514,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45737</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9533,13 +9533,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9576,14 +9571,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>45588</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9596,7 +9591,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9633,14 +9628,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9653,7 +9648,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9690,14 +9685,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45607</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,8 +9704,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9747,14 +9747,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>45567</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,13 +9766,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9809,14 +9804,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45989</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9829,7 +9824,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9866,14 +9861,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9885,8 +9880,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9930,7 +9930,7 @@
         <v>45950.6121875</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9980,14 +9980,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45142</v>
+        <v>45989</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9999,13 +9999,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10042,14 +10037,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10061,13 +10056,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10104,14 +10094,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45618</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10124,7 +10114,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10161,14 +10151,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10181,7 +10171,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10218,14 +10208,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46019</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10238,7 +10228,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10275,14 +10265,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46019</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10295,7 +10285,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10332,14 +10322,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44852</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10352,7 +10342,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10389,14 +10379,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44973</v>
+        <v>45091</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10409,7 +10399,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10446,14 +10436,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>45440</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10465,13 +10455,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10508,14 +10493,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10533,7 +10518,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10570,14 +10555,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10595,7 +10580,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10632,14 +10617,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45320</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10651,8 +10636,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10689,14 +10679,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45454</v>
+        <v>45196</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10708,8 +10698,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10746,14 +10741,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45454</v>
+        <v>45232</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10765,8 +10760,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10803,14 +10803,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44473</v>
+        <v>45639</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10860,14 +10860,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46018</v>
+        <v>45408</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10879,8 +10879,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10917,14 +10922,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46020</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10937,7 +10942,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10974,14 +10979,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>46045</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10993,13 +10998,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11036,14 +11036,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11093,14 +11093,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11150,14 +11150,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45408</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11212,14 +11212,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>46045</v>
+        <v>45155</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11231,8 +11231,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11269,14 +11274,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45679</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11289,7 +11294,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11326,14 +11331,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11346,7 +11351,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11390,7 +11395,7 @@
         <v>46008.97842592592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11440,14 +11445,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11460,7 +11465,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11497,14 +11502,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45056</v>
+        <v>45169</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11516,8 +11521,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11554,14 +11564,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>46014</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11573,13 +11583,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.6</v>
+        <v>22.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11616,14 +11621,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45056</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11636,7 +11641,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11673,14 +11678,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45639</v>
+        <v>45226</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11692,8 +11697,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11730,14 +11740,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11750,7 +11760,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11787,14 +11797,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45588</v>
+        <v>46014</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11807,7 +11817,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11844,14 +11854,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44973</v>
+        <v>45049</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11863,13 +11873,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11906,14 +11911,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46014</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11926,7 +11931,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>33.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11963,14 +11968,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46014</v>
+        <v>46020</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11983,7 +11988,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>22.8</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12020,14 +12025,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44328</v>
+        <v>46019</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12039,13 +12044,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12082,14 +12082,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>45631</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>33.1</v>
+        <v>0.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12139,14 +12139,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45034</v>
+        <v>46018</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12158,13 +12158,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>8.1</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12201,14 +12196,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45155</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12220,13 +12215,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12263,14 +12253,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12283,7 +12273,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12320,14 +12310,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45554</v>
+        <v>46019</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12340,7 +12330,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12377,14 +12367,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45769</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12396,8 +12386,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12434,14 +12429,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45598</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12455,11 +12450,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12496,14 +12491,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45408</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12515,13 +12510,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>1.3</v>
+        <v>22.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12558,14 +12548,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12579,11 +12569,11 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.5</v>
+        <v>15.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12620,14 +12610,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45576</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12639,13 +12629,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12682,14 +12667,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12701,13 +12686,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>9.6</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12744,14 +12724,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45553</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12763,13 +12743,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12806,14 +12781,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44873</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12826,7 +12801,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12870,7 +12845,7 @@
         <v>45200</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12925,14 +12900,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45714</v>
+        <v>44816</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12946,11 +12921,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>15.4</v>
+        <v>20.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12987,14 +12962,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45769</v>
+        <v>45210</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13012,7 +12987,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13049,14 +13024,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45551</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13068,8 +13043,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13106,14 +13086,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13125,8 +13105,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13163,14 +13148,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45598</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13188,7 +13173,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13225,14 +13210,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45588</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13244,8 +13229,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13282,14 +13272,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45632</v>
+        <v>45056</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13301,13 +13291,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13344,14 +13329,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>45233</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13363,8 +13348,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13401,14 +13391,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45454</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13421,7 +13411,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13458,14 +13448,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45049</v>
+        <v>45454</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13478,7 +13468,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13515,14 +13505,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44523</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13534,8 +13524,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13572,14 +13567,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45405</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13591,8 +13586,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13629,14 +13629,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45233</v>
+        <v>45588</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13648,13 +13648,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13691,14 +13686,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44816</v>
+        <v>45179</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13716,7 +13711,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>20.5</v>
+        <v>4.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13753,14 +13748,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>45607</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13773,7 +13768,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13810,14 +13805,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13829,8 +13824,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13867,14 +13867,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13924,14 +13924,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45567</v>
+        <v>44328</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13943,8 +13943,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13981,14 +13986,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45618</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14000,8 +14005,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14038,14 +14048,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45316</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14057,13 +14067,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14100,14 +14105,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>45567</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14120,7 +14125,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14157,14 +14162,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45632</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14178,11 +14183,11 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14219,14 +14224,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44992</v>
+        <v>44691</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14238,8 +14243,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14276,14 +14286,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14296,7 +14306,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14333,14 +14343,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14352,13 +14362,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14395,14 +14400,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44480</v>
+        <v>45597</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14415,7 +14420,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14452,14 +14457,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45034</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14473,11 +14478,11 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>8.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14514,14 +14519,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>44992</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14533,13 +14538,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14576,14 +14576,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45440</v>
+        <v>45777</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14595,8 +14595,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14633,14 +14638,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45777</v>
+        <v>45191</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14654,11 +14659,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14695,14 +14700,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14720,7 +14725,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14757,14 +14762,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45196</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14776,13 +14781,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14819,14 +14819,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14838,8 +14838,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14876,14 +14881,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45740</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14895,13 +14900,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14938,14 +14938,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45740</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14957,8 +14957,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15002,7 +15007,7 @@
         <v>45792.36696759259</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15057,14 +15062,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15076,13 +15081,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>45576.39340277778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z240"/>
+  <dimension ref="A1:Z241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25843-2021</t>
+          <t>A 62471-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44343</v>
+        <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,145 +806,145 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Kryddspindling
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 25843-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bårdlav
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62471-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45268</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Kryddspindling
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34170-2025</t>
+          <t>A 33377-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45845.58730324074</v>
+        <v>45128</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>11.3</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -996,308 +996,308 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Dofttaggsvamp
+Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 39250-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45551.31601851852</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 34170-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45845.58730324074</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 13834-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45737</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>4.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 39250-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45551.31601851852</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 33377-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45128</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Gul taggsvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41468-2024</t>
+          <t>A 56825-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45560</v>
+        <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,13 +1495,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>14.2</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1513,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1525,483 +1520,488 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 41468-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 55711-2024</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45622.69902777778</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 56825-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44480</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44239</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44480</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44449</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,14 +4152,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2312-2022</t>
+          <t>A 67361-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44578</v>
+        <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4209,14 +4209,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 67361-2021</t>
+          <t>A 2312-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44523</v>
+        <v>44578</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4266,14 +4266,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45405</v>
+        <v>44480</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4323,14 +4323,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44264</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4342,13 +4342,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4380,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44523</v>
+        <v>45196</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4404,8 +4399,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44860</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4499,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44356</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4556,14 +4556,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45631</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45567</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44550</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,13 +4689,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4732,14 +4727,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45093</v>
+        <v>45618</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4752,7 +4747,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4789,14 +4784,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45320</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4808,8 +4803,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4846,14 +4846,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44873</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45154</v>
+        <v>45799</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4922,8 +4922,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.2</v>
+        <v>6.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4960,14 +4965,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4979,13 +4984,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44973</v>
+        <v>45210</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5041,8 +5041,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5079,14 +5084,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44480</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5099,7 +5104,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5136,14 +5141,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5155,8 +5160,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5193,14 +5203,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45737</v>
+        <v>44992</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5212,13 +5222,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5255,14 +5260,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45056</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5275,7 +5280,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5312,14 +5317,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45554</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5331,8 +5336,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5369,14 +5379,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>44480</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5389,7 +5399,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.9</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5426,14 +5436,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45408</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5451,7 +5461,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5488,14 +5498,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5507,8 +5517,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5545,14 +5560,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45091</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5565,7 +5580,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5602,14 +5617,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45405</v>
+        <v>45440</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5622,7 +5637,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5659,14 +5674,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>45777</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5684,7 +5699,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5721,14 +5736,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45583</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5740,8 +5755,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5778,14 +5798,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45191</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5799,11 +5819,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5840,14 +5860,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45196</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5861,11 +5881,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5902,14 +5922,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45363</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5921,13 +5941,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>23.8</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5964,14 +5979,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5985,11 +6000,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>9.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6026,14 +6041,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44473</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6046,7 +6061,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6083,14 +6098,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6104,11 +6119,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6145,14 +6160,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44973</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6164,13 +6179,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6207,14 +6217,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6232,7 +6242,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6269,14 +6279,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45154</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,13 +6298,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6331,14 +6336,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45583</v>
+        <v>45226</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6356,7 +6361,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6393,14 +6398,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6412,13 +6417,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6455,14 +6455,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45799</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6476,11 +6476,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6517,14 +6517,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6536,8 +6536,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6574,14 +6579,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45598</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6604,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6636,14 +6641,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45839</v>
+        <v>45567</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6656,7 +6661,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6693,14 +6698,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45740</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6713,7 +6718,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6750,14 +6755,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6769,8 +6774,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.1</v>
+        <v>6.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6807,14 +6817,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45363</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6826,8 +6836,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6864,14 +6879,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6885,11 +6900,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6926,14 +6941,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>44356</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6946,7 +6961,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6983,14 +6998,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>45918</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7002,13 +7017,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7045,14 +7055,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45846</v>
+        <v>45551</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7064,8 +7074,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7102,14 +7117,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45142</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7121,13 +7136,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7164,14 +7174,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45631</v>
+        <v>44264</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7183,8 +7193,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7221,14 +7236,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7240,13 +7255,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7283,14 +7293,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45918</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7303,7 +7313,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7340,14 +7350,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7359,13 +7369,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>15</v>
+        <v>4.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7402,14 +7407,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45576</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7421,13 +7426,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7464,14 +7464,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45316</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7521,14 +7521,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7578,14 +7578,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7597,13 +7597,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>15.5</v>
+        <v>4.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7640,14 +7635,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45793</v>
+        <v>45179</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7659,8 +7654,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7697,14 +7697,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7754,14 +7754,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>44550</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7773,8 +7773,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>10.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7811,14 +7816,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44349</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7831,7 +7836,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7868,14 +7873,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7887,8 +7892,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7925,14 +7935,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7944,8 +7954,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7982,14 +7997,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44480</v>
+        <v>44691</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8001,8 +8016,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8039,14 +8059,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8060,11 +8080,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>23.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8101,14 +8121,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8120,13 +8140,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8163,14 +8178,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8182,8 +8197,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>4.6</v>
+        <v>7.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8220,14 +8240,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8241,11 +8261,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8282,14 +8302,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8303,11 +8323,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8344,14 +8364,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8363,8 +8383,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>3.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8401,14 +8426,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8418,6 +8443,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -8458,14 +8488,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45169</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8477,8 +8507,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8515,14 +8550,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45714</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8534,13 +8569,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>15.4</v>
+        <v>22.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8577,14 +8607,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8602,7 +8632,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8639,14 +8669,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8659,7 +8689,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8696,14 +8726,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8715,8 +8745,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.8</v>
+        <v>15.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8753,14 +8788,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45839</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8773,7 +8808,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8810,14 +8845,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8829,13 +8864,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>9.6</v>
+        <v>2.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8872,14 +8902,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45553</v>
+        <v>45405</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8891,13 +8921,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8934,14 +8959,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8955,11 +8980,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8996,14 +9021,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45957</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9016,7 +9041,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9053,14 +9078,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44852</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9073,7 +9098,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9110,14 +9135,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45191</v>
+        <v>44860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9129,13 +9154,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>3.7</v>
+        <v>6.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9172,14 +9192,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9192,7 +9212,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9229,14 +9249,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44244</v>
+        <v>45232</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9248,8 +9268,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>10.4</v>
+        <v>2.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9286,14 +9311,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45846</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9306,7 +9331,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9343,14 +9368,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44992</v>
+        <v>45679</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9363,7 +9388,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9400,14 +9425,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9420,7 +9445,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.2</v>
+        <v>5.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9457,14 +9482,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45974</v>
+        <v>45631</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9477,7 +9502,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9514,14 +9539,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>44992</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9534,7 +9559,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9571,14 +9596,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45588</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9590,8 +9615,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9628,14 +9658,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9648,7 +9678,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9685,14 +9715,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 8205-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>44244</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9704,13 +9734,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>10.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9747,14 +9772,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45567</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9767,7 +9792,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9804,14 +9829,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9824,7 +9849,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9861,14 +9886,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,11 +9907,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>15.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9923,14 +9948,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9942,8 +9967,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9980,14 +10010,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45989</v>
+        <v>45793</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10000,7 +10030,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10037,14 +10067,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45093</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10057,7 +10087,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10094,14 +10124,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45618</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10113,8 +10143,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10151,14 +10186,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>45191</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10170,8 +10205,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10208,14 +10248,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10228,7 +10268,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10265,14 +10305,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>45957</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10285,7 +10325,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10322,14 +10362,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>44349</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10342,7 +10382,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10379,14 +10419,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45091</v>
+        <v>45597</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10399,7 +10439,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10436,14 +10476,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45440</v>
+        <v>45598</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10455,8 +10495,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10493,14 +10538,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10512,13 +10557,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10555,14 +10595,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>45737</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10576,11 +10616,11 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10617,14 +10657,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10636,13 +10676,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10679,14 +10714,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45196</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10698,13 +10733,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10741,14 +10771,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45232</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10760,13 +10790,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10803,14 +10828,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45639</v>
+        <v>45974</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10823,7 +10848,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10860,14 +10885,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45408</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10881,11 +10906,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10922,14 +10947,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45607</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10942,7 +10967,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10979,14 +11004,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46045</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10998,8 +11023,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11036,14 +11066,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45142</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11055,8 +11085,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11093,14 +11128,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11112,8 +11147,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11150,14 +11190,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45989</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11169,13 +11209,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11212,14 +11247,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45155</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11231,13 +11266,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11274,14 +11304,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45679</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11294,7 +11324,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11331,14 +11361,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11351,7 +11381,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11388,14 +11418,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11408,7 +11438,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11445,14 +11475,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>44852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11465,7 +11495,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11502,14 +11532,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45169</v>
+        <v>44973</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11521,13 +11551,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11564,14 +11589,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46014</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11583,8 +11608,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>22.8</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11621,14 +11651,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11640,8 +11670,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11678,14 +11713,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45226</v>
+        <v>45320</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11695,11 +11730,6 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G182" t="n">
@@ -11740,14 +11770,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11759,8 +11789,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11797,14 +11832,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46014</v>
+        <v>45454</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11817,7 +11852,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11854,14 +11889,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45049</v>
+        <v>45454</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11874,7 +11909,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11911,14 +11946,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>44473</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11931,7 +11966,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>33.1</v>
+        <v>2.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11968,14 +12003,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46020</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11987,8 +12022,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12025,14 +12065,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46019</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12045,7 +12085,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12082,14 +12122,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45631</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12102,7 +12142,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12139,14 +12179,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46018</v>
+        <v>45408</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12158,8 +12198,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12196,14 +12241,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>46045</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12216,7 +12261,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12253,14 +12298,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45056</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12310,14 +12355,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46019</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12330,7 +12375,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12367,14 +12412,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45769</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12388,11 +12433,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12429,14 +12474,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>45056</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12448,13 +12493,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12491,14 +12531,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12511,7 +12551,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>22.4</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12548,14 +12588,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12567,13 +12607,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>15.9</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12610,14 +12645,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45576</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12630,7 +12665,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12667,14 +12702,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45639</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12687,7 +12722,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12724,14 +12759,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12744,7 +12779,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12781,14 +12816,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>45588</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12801,7 +12836,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12838,14 +12873,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45200</v>
+        <v>44973</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12859,11 +12894,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>5.4</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12900,14 +12935,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44816</v>
+        <v>44328</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12921,11 +12956,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>20.5</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12962,14 +12997,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45210</v>
+        <v>45034</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12983,11 +13018,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5</v>
+        <v>8.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13024,14 +13059,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45551</v>
+        <v>46014</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13043,13 +13078,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13086,14 +13116,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>46014</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13105,13 +13135,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>3.5</v>
+        <v>22.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13148,14 +13173,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45598</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13167,13 +13192,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>33.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13210,14 +13230,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45155</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13231,11 +13251,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13272,14 +13292,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45056</v>
+        <v>46019</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13292,7 +13312,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13329,14 +13349,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45233</v>
+        <v>46018</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13348,13 +13368,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13391,14 +13406,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45454</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13410,8 +13425,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13448,14 +13468,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45454</v>
+        <v>46020</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13468,7 +13488,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13505,14 +13525,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>46019</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13524,13 +13544,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13567,14 +13582,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13586,13 +13601,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>6.7</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13629,14 +13639,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45588</v>
+        <v>45554</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13649,7 +13659,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13686,14 +13696,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45179</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13705,13 +13715,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13748,14 +13753,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45607</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13768,7 +13773,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13805,14 +13810,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>45598</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13826,11 +13831,11 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13867,14 +13872,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45408</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13886,8 +13891,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13924,14 +13934,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44328</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13945,11 +13955,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13986,14 +13996,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14007,11 +14017,11 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14048,14 +14058,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45316</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14067,8 +14077,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14105,14 +14120,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45567</v>
+        <v>45553</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14124,8 +14139,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14162,14 +14182,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45632</v>
+        <v>44873</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14181,13 +14201,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14224,14 +14239,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44691</v>
+        <v>45200</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14245,11 +14260,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14286,14 +14301,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45714</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14305,8 +14320,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>2.5</v>
+        <v>15.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14343,14 +14363,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45769</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14362,8 +14382,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14400,14 +14425,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45597</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14420,7 +14445,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14457,14 +14482,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45034</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14476,13 +14501,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>8.1</v>
+        <v>3.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14519,14 +14539,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44992</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14538,8 +14558,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14576,14 +14601,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45777</v>
+        <v>45588</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14595,13 +14620,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14638,14 +14658,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45191</v>
+        <v>45632</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14663,7 +14683,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14700,14 +14720,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45196</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14719,13 +14739,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14762,14 +14777,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14782,7 +14797,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14819,14 +14834,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45049</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14838,13 +14853,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14881,14 +14891,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45740</v>
+        <v>44523</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14901,7 +14911,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14938,14 +14948,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45405</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14957,13 +14967,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15000,14 +15005,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>45233</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15021,11 +15026,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15062,14 +15067,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>44816</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15081,8 +15086,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>20.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15116,17 +15126,17 @@
       </c>
       <c r="R239" s="2" t="inlineStr"/>
     </row>
-    <row r="240">
+    <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15138,13 +15148,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>9.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15177,6 +15182,63 @@
         <v>0</v>
       </c>
       <c r="R240" s="2" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>A 16225-2023</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>45028.39668981481</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62471-2023</t>
+          <t>A 25843-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45268</v>
+        <v>44343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,145 +806,145 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Bårdlav
+Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62471-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Kryddspindling
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 25843-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Bårdlav
-Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 33377-2023</t>
+          <t>A 34170-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45128</v>
+        <v>45845.58730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>11.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -996,308 +996,308 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 13834-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Slåtterfibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 39250-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45551.31601851852</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 33377-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Dofttaggsvamp
 Gul taggsvamp</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 39250-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45551.31601851852</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 34170-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45845.58730324074</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 13834-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 56825-2021</t>
+          <t>A 41468-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44480</v>
+        <v>45560</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,8 +1495,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>14.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1508,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1520,488 +1525,483 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 55711-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45622.69902777778</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 56825-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44480</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H13" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 41468-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 55711-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45622.69902777778</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,14 +2124,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19030-2021</t>
+          <t>A 51415-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44308</v>
+        <v>44869.454375</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,8 +2143,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2181,14 +2186,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 51415-2022</t>
+          <t>A 19030-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44869.454375</v>
+        <v>44308</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2200,13 +2205,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3081,14 +3081,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44015-2022</t>
+          <t>A 35656-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44838.80408564815</v>
+        <v>44386.4384375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9875-2022</t>
+          <t>A 44015-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44620.57958333333</v>
+        <v>44838.80408564815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3219,8 +3219,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3262,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45738-2022</t>
+          <t>A 47599-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44846.32945601852</v>
+        <v>44852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3276,13 +3281,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3319,14 +3319,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25364-2021</t>
+          <t>A 15427-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44342</v>
+        <v>44659.66278935185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3376,14 +3376,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46641-2022</t>
+          <t>A 45737-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44849</v>
+        <v>44846.32850694445</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7642-2021</t>
+          <t>A 42504-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44239</v>
+        <v>44831.58111111111</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3457,8 +3457,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3495,14 +3500,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56929-2021</t>
+          <t>A 42505-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44480</v>
+        <v>44831.58203703703</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3514,8 +3519,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3552,14 +3562,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 48143-2021</t>
+          <t>A 9875-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44449</v>
+        <v>44620.57958333333</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3571,13 +3581,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3614,14 +3619,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 35656-2021</t>
+          <t>A 45738-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44386.4384375</v>
+        <v>44846.32945601852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3639,7 +3644,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3676,14 +3681,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47599-2022</t>
+          <t>A 26910-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44852</v>
+        <v>44349</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3696,7 +3701,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3733,14 +3738,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 42504-2022</t>
+          <t>A 25364-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44831.58111111111</v>
+        <v>44342</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3752,13 +3757,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3795,14 +3795,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42505-2022</t>
+          <t>A 67361-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44831.58203703703</v>
+        <v>44523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3814,13 +3814,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3857,14 +3852,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15427-2022</t>
+          <t>A 2312-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44659.66278935185</v>
+        <v>44578</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3877,7 +3872,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3914,14 +3909,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 45737-2022</t>
+          <t>A 38906-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44846.32850694445</v>
+        <v>44816.60269675926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3939,7 +3934,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3976,14 +3971,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 26910-2021</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44349</v>
+        <v>45093</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3991,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4033,14 +4028,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38906-2022</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44816.60269675926</v>
+        <v>45320</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,13 +4047,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4102,7 +4092,7 @@
         <v>44635</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4152,14 +4142,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 67361-2021</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44523</v>
+        <v>45154</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4172,7 +4162,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4209,14 +4199,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2312-2022</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44578</v>
+        <v>44873</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4219,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4266,14 +4256,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44480</v>
+        <v>44264</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4285,8 +4275,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4323,14 +4318,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4342,8 +4337,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4380,14 +4380,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45196</v>
+        <v>44523</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4399,13 +4399,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4437,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45405</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4462,7 +4457,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4499,14 +4494,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,8 +4513,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4556,14 +4556,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45631</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45567</v>
+        <v>44973</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>44860</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4727,14 +4727,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45618</v>
+        <v>44356</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4784,14 +4784,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4803,13 +4803,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4846,14 +4841,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 46641-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>44849</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4865,8 +4860,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4903,14 +4903,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45799</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.5</v>
+        <v>9.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>45553</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4984,8 +4984,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5022,14 +5027,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45210</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,11 +5048,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5084,14 +5089,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>44852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5104,7 +5109,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5141,14 +5146,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>44480</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5160,13 +5165,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5203,14 +5203,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 7642-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44992</v>
+        <v>44239</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5260,14 +5260,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45191</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5279,8 +5279,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5317,14 +5322,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5336,13 +5341,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44480</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 8205-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>44244</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5455,13 +5455,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>10.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5498,14 +5493,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45737</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5523,7 +5518,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5560,14 +5555,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45091</v>
+        <v>45056</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5580,7 +5575,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5617,14 +5612,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45440</v>
+        <v>45554</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5637,7 +5632,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5674,14 +5669,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45777</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5693,13 +5688,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5736,14 +5726,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 56929-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45583</v>
+        <v>44480</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5755,13 +5745,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5798,14 +5783,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 48143-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45191</v>
+        <v>44449</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5823,7 +5808,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5860,14 +5845,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45196</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5879,13 +5864,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5922,14 +5902,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45363</v>
+        <v>45408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5941,8 +5921,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5979,14 +5964,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>44992</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5998,13 +5983,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6041,14 +6021,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>44550</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6060,8 +6040,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>10.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6098,14 +6083,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,13 +6102,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6160,14 +6140,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6160,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6217,14 +6197,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6236,13 +6216,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>4.3</v>
+        <v>0.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6279,14 +6254,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45154</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6299,7 +6274,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6336,14 +6311,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45226</v>
+        <v>45405</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6355,13 +6330,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>7.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6398,14 +6368,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45588</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6418,7 +6388,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6455,14 +6425,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6480,7 +6450,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6517,14 +6487,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6536,13 +6506,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6579,14 +6544,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6598,13 +6563,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6641,14 +6601,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45567</v>
+        <v>44473</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6661,7 +6621,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6698,14 +6658,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45740</v>
+        <v>44973</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6717,8 +6677,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6755,14 +6720,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6774,13 +6739,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6817,14 +6777,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45200</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6838,11 +6798,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6879,14 +6839,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6900,11 +6860,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6941,14 +6901,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44356</v>
+        <v>45567</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6961,7 +6921,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6998,14 +6958,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918</v>
+        <v>45583</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7017,8 +6977,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7055,14 +7020,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45551</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7074,13 +7039,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7117,14 +7077,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7137,7 +7097,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7174,14 +7134,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44264</v>
+        <v>45598</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7195,11 +7155,11 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7236,14 +7196,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7256,7 +7216,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7293,14 +7253,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7313,7 +7273,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7350,14 +7310,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7370,7 +7330,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7407,14 +7367,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45576</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7426,8 +7386,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7464,14 +7429,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45316</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7484,7 +7449,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7521,14 +7486,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7540,8 +7505,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7578,14 +7548,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7597,8 +7567,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>4.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7635,14 +7610,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45179</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7656,11 +7631,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7697,14 +7672,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7716,8 +7691,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>3.3</v>
+        <v>23.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7754,14 +7734,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44550</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7775,11 +7755,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7816,14 +7796,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7835,8 +7815,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7873,14 +7858,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7898,7 +7883,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7935,14 +7920,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45618</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7954,13 +7939,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7997,14 +7977,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44691</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8016,13 +7996,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8059,14 +8034,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8080,11 +8055,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>23.8</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8121,14 +8096,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>44816</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,8 +8115,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>4.6</v>
+        <v>20.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8178,14 +8158,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45210</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8199,11 +8179,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8240,14 +8220,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8259,13 +8239,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>8.300000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8302,14 +8277,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8321,13 +8296,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8364,14 +8334,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45091</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8383,13 +8353,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>9.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8426,14 +8391,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45551</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8447,11 +8412,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8488,14 +8453,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45169</v>
+        <v>45440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8507,13 +8472,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8550,14 +8510,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8569,8 +8529,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>22.4</v>
+        <v>3.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8607,14 +8572,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45839</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8626,13 +8591,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8669,14 +8629,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45598</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8688,8 +8648,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8726,14 +8691,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>45196</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8747,11 +8712,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>15.9</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8788,14 +8753,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45839</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8807,8 +8772,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8845,14 +8815,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45142</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8864,8 +8834,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8902,14 +8877,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45405</v>
+        <v>45232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8921,8 +8896,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8959,14 +8939,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>45631</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8978,13 +8958,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9021,14 +8996,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>45639</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9016,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9078,14 +9053,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45408</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9097,8 +9072,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9135,14 +9115,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44860</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9135,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9192,14 +9172,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9211,8 +9191,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9249,14 +9234,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45232</v>
+        <v>45846</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9268,13 +9253,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9311,14 +9291,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45846</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9331,7 +9311,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9368,14 +9348,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45679</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9388,7 +9368,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9425,14 +9405,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9444,8 +9424,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9482,14 +9467,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45631</v>
+        <v>44349</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9502,7 +9487,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9539,14 +9524,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44992</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9559,7 +9544,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9596,14 +9581,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9615,13 +9600,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9658,14 +9638,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45155</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9677,8 +9657,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9715,14 +9700,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44244</v>
+        <v>44480</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9735,7 +9720,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>10.4</v>
+        <v>2.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9772,14 +9757,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45679</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9792,7 +9777,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9829,14 +9814,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9848,8 +9833,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9886,14 +9876,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45056</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9905,13 +9895,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>15.5</v>
+        <v>0.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9955,7 +9940,7 @@
         <v>45882.33851851852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10010,14 +9995,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45793</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10029,8 +10014,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10067,14 +10057,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45093</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10087,7 +10077,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10124,14 +10114,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10145,11 +10135,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10186,14 +10176,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45191</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10205,13 +10195,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10248,14 +10233,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10267,8 +10252,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>3.7</v>
+        <v>15.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10305,14 +10295,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45957</v>
+        <v>45169</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10324,8 +10314,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10362,14 +10357,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44349</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10382,7 +10377,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10419,14 +10414,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45597</v>
+        <v>45226</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10438,8 +10433,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10476,14 +10476,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45598</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10495,13 +10495,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10538,14 +10533,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45793</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10558,7 +10553,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10595,14 +10590,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45737</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10614,13 +10609,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10657,14 +10647,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>45049</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10677,7 +10667,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10714,14 +10704,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10733,8 +10723,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10771,14 +10766,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10790,8 +10785,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10828,14 +10828,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45974</v>
+        <v>45233</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10847,8 +10847,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10885,14 +10890,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45454</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10904,13 +10909,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10947,14 +10947,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45607</v>
+        <v>45454</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.1</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11004,14 +11004,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11023,13 +11023,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11066,14 +11061,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45142</v>
+        <v>45714</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,11 +11082,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>15.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11128,14 +11123,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>45631</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11147,13 +11142,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11190,14 +11180,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45989</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11210,7 +11200,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11247,14 +11237,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11266,8 +11256,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11304,14 +11299,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45769</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11323,8 +11318,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11361,14 +11361,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11380,8 +11380,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11418,14 +11423,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11437,8 +11442,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11475,14 +11485,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44852</v>
+        <v>45799</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11494,8 +11504,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11532,14 +11547,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44973</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11552,7 +11567,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>22.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11589,14 +11604,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11610,11 +11625,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>15.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11651,14 +11666,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45576</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11670,13 +11685,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11713,14 +11723,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45320</v>
+        <v>45588</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11733,7 +11743,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11770,14 +11780,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11789,13 +11799,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11832,14 +11837,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45454</v>
+        <v>45179</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11851,8 +11856,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11889,14 +11899,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45454</v>
+        <v>45607</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11909,7 +11919,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11946,14 +11956,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44473</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11965,8 +11975,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12003,14 +12018,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12022,13 +12037,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12065,14 +12075,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>44328</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12084,8 +12094,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12122,14 +12137,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12141,8 +12156,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12179,14 +12199,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45408</v>
+        <v>45316</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12198,13 +12218,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12241,14 +12256,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46045</v>
+        <v>45567</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12261,7 +12276,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12298,14 +12313,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45056</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12317,8 +12332,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12355,14 +12375,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45632</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12374,8 +12394,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12412,14 +12437,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>44691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12433,11 +12458,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12474,14 +12499,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45056</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12494,7 +12519,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12531,14 +12556,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12551,7 +12576,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12588,14 +12613,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45597</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12608,7 +12633,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12645,14 +12670,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>45034</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12664,8 +12689,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12702,14 +12732,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45639</v>
+        <v>44992</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12722,7 +12752,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12759,14 +12789,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45918</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12779,7 +12809,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12816,14 +12846,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45588</v>
+        <v>45777</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12835,8 +12865,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12873,14 +12908,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44973</v>
+        <v>45191</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12894,11 +12929,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12935,14 +12970,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44328</v>
+        <v>45196</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12956,11 +12991,11 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12997,14 +13032,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45034</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13016,13 +13051,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13059,14 +13089,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46014</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13079,7 +13109,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13116,14 +13146,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46014</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13136,7 +13166,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>22.8</v>
+        <v>2.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13173,14 +13203,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13193,7 +13223,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>33.1</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13230,14 +13260,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45155</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13251,11 +13281,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>7.6</v>
+        <v>2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13292,14 +13322,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46019</v>
+        <v>45740</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13312,7 +13342,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13349,14 +13379,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46018</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13368,8 +13398,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13406,14 +13441,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 7969-2026</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46063.4653587963</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13431,7 +13466,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13468,14 +13503,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46020</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13488,7 +13523,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13525,14 +13560,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46019</v>
+        <v>45957</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13545,7 +13580,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13582,14 +13617,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13602,7 +13637,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13639,14 +13674,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45554</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13658,8 +13693,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13696,14 +13736,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13716,7 +13756,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13753,14 +13793,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45974</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13773,7 +13813,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13810,14 +13850,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45598</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13829,13 +13869,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13872,14 +13907,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45408</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13893,11 +13928,11 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13934,14 +13969,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13953,13 +13988,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13996,14 +14026,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45989</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14015,13 +14045,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14058,14 +14083,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14077,13 +14102,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>9.6</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14120,14 +14140,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45553</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14139,13 +14159,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14182,14 +14197,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44873</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14202,7 +14217,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14239,14 +14254,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45200</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,11 +14275,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14301,14 +14316,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45714</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14322,11 +14337,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>15.4</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14363,14 +14378,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45769</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14384,11 +14399,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14425,14 +14440,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>46045</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14445,7 +14460,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14482,14 +14497,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14502,7 +14517,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14539,14 +14554,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14558,13 +14573,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>4.1</v>
+        <v>6.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14601,14 +14611,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45588</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14621,7 +14631,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14658,14 +14668,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45632</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14677,13 +14687,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14720,14 +14725,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>46014</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14740,7 +14745,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.8</v>
+        <v>22.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14777,14 +14782,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>46014</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14797,7 +14802,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14834,14 +14839,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45049</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14854,7 +14859,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.7</v>
+        <v>33.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14891,14 +14896,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44523</v>
+        <v>46020</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14911,7 +14916,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14948,14 +14953,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45405</v>
+        <v>46018</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14968,7 +14973,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15005,14 +15010,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45233</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15024,13 +15029,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15067,14 +15067,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44816</v>
+        <v>46019</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15086,13 +15086,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>20.5</v>
+        <v>3.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15129,14 +15124,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15148,8 +15143,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15186,14 +15186,14 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>46019</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z241"/>
+  <dimension ref="A1:Z240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25843-2021</t>
+          <t>A 62471-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44343</v>
+        <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,134 +806,134 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Kryddspindling
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 25843-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bårdlav
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62471-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45268</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Kryddspindling
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45845.58730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1028,14 +1028,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 13834-2025</t>
+          <t>A 39250-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45737</v>
+        <v>45551.31601851852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,20 +1049,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.7</v>
+        <v>8.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1087,126 +1087,126 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 13834-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Slåtterfibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 39250-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45551.31601851852</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41468-2024</t>
+          <t>A 56825-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45560</v>
+        <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,13 +1495,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>14.2</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1513,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1525,483 +1520,488 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 41468-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 55711-2024</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45622.69902777778</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 56825-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44480</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,14 +2124,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 51415-2022</t>
+          <t>A 19030-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44869.454375</v>
+        <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,13 +2143,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2186,14 +2181,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 19030-2021</t>
+          <t>A 51415-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44308</v>
+        <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2205,8 +2200,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,14 +2781,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45213-2022</t>
+          <t>A 29244-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44844.44208333334</v>
+        <v>44360</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2800,8 +2800,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2838,14 +2843,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 29244-2021</t>
+          <t>A 47607-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44360</v>
+        <v>44852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2857,13 +2862,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2900,14 +2900,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47607-2022</t>
+          <t>A 45213-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44852</v>
+        <v>44844.44208333334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3081,14 +3081,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35656-2021</t>
+          <t>A 44015-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44386.4384375</v>
+        <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3200,14 +3200,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 44015-2022</t>
+          <t>A 9875-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44838.80408564815</v>
+        <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3219,13 +3219,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3262,14 +3257,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 47599-2022</t>
+          <t>A 45738-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44852</v>
+        <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3281,8 +3276,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3319,14 +3319,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15427-2022</t>
+          <t>A 25364-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44659.66278935185</v>
+        <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3376,14 +3376,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 45737-2022</t>
+          <t>A 46641-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44846.32850694445</v>
+        <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3438,14 +3438,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42504-2022</t>
+          <t>A 56929-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44831.58111111111</v>
+        <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3457,13 +3457,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3500,14 +3495,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 42505-2022</t>
+          <t>A 48143-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44831.58203703703</v>
+        <v>44449</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3521,11 +3516,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3562,14 +3557,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9875-2022</t>
+          <t>A 35656-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44620.57958333333</v>
+        <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3581,8 +3576,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3619,14 +3619,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45738-2022</t>
+          <t>A 47599-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44846.32945601852</v>
+        <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3638,13 +3638,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3681,14 +3676,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 26910-2021</t>
+          <t>A 42504-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44349</v>
+        <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3700,8 +3695,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3738,14 +3738,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25364-2021</t>
+          <t>A 42505-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44342</v>
+        <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3757,8 +3757,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3795,14 +3800,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 67361-2021</t>
+          <t>A 15427-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44523</v>
+        <v>44659.66278935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3820,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3852,14 +3857,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2312-2022</t>
+          <t>A 45737-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44578</v>
+        <v>44846.32850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3871,8 +3876,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3909,14 +3919,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 38906-2022</t>
+          <t>A 26910-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44816.60269675926</v>
+        <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3928,13 +3938,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3971,14 +3976,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 38906-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45093</v>
+        <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3990,8 +3995,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4028,14 +4038,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 12233-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45320</v>
+        <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4085,14 +4095,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12233-2022</t>
+          <t>A 2312-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44635</v>
+        <v>44578</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4142,14 +4152,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 67361-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45154</v>
+        <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4162,7 +4172,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4199,14 +4209,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44873</v>
+        <v>44480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4219,7 +4229,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4256,14 +4266,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44264</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4275,13 +4285,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4318,14 +4323,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45196</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4339,11 +4344,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4380,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44523</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4400,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4437,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45405</v>
+        <v>45631</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4457,7 +4462,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4494,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4513,13 +4518,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4556,14 +4556,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44973</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44860</v>
+        <v>45210</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,8 +4689,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4727,14 +4732,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44356</v>
+        <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4747,7 +4752,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4784,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45583</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4803,8 +4808,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4841,14 +4851,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46641-2022</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44849</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4866,7 +4876,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4903,14 +4913,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,11 +4934,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.6</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4965,14 +4975,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45553</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4986,11 +4996,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5027,14 +5037,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,7 +5062,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5089,14 +5099,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44852</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5109,7 +5119,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5146,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44480</v>
+        <v>45363</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5166,7 +5176,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5203,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7642-2021</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44239</v>
+        <v>45154</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5223,7 +5233,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.8</v>
+        <v>0.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5260,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45191</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5279,13 +5289,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>33.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5322,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45226</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5341,8 +5346,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5379,14 +5389,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5399,7 +5409,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5436,14 +5446,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44244</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5455,8 +5465,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>10.4</v>
+        <v>5.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5493,14 +5508,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45737</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,7 +5533,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5555,14 +5570,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45056</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5575,7 +5590,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5.8</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5612,14 +5627,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45554</v>
+        <v>46018</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5632,7 +5647,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5669,14 +5684,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5688,8 +5703,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5726,14 +5746,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56929-2021</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44480</v>
+        <v>46020</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5783,14 +5803,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48143-2021</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44449</v>
+        <v>45567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5802,13 +5822,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5845,14 +5860,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5865,7 +5880,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5902,14 +5917,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45408</v>
+        <v>45799</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,11 +5938,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5964,14 +5979,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44992</v>
+        <v>44356</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5984,7 +5999,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8.300000000000001</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6021,14 +6036,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44550</v>
+        <v>46019</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6040,13 +6055,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>10.1</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6083,14 +6093,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>46019</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6103,7 +6113,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6140,14 +6150,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45551</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6159,8 +6169,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6197,14 +6212,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>44264</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6216,8 +6231,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6254,14 +6274,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6274,7 +6294,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6311,14 +6331,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45405</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6331,7 +6351,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.7</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6368,14 +6388,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45588</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6388,7 +6408,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6425,14 +6445,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>45576</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6444,13 +6464,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6487,14 +6502,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6507,7 +6522,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6544,14 +6559,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6563,8 +6578,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6601,14 +6621,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44473</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6620,8 +6640,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6658,14 +6683,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44973</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6679,11 +6704,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>23.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6720,14 +6745,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6739,8 +6764,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>4.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6777,14 +6807,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45200</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6798,11 +6828,11 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6839,14 +6869,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,11 +6890,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6901,14 +6931,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45567</v>
+        <v>45316</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6951,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6958,14 +6988,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45583</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6983,7 +7013,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7020,14 +7050,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7040,7 +7070,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7077,14 +7107,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45839</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7097,7 +7127,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7134,14 +7164,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45598</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7153,13 +7183,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7196,14 +7221,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45179</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7215,8 +7240,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7253,14 +7283,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7273,7 +7303,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7310,14 +7340,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45363</v>
+        <v>44550</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7329,8 +7359,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>10.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7367,14 +7402,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>44691</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7388,11 +7423,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7429,14 +7464,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7448,8 +7483,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7486,14 +7526,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7511,7 +7551,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7548,14 +7588,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45169</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7569,11 +7609,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>8.300000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7610,14 +7650,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7629,13 +7669,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>22.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7672,14 +7707,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7691,13 +7726,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>23.8</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7734,14 +7764,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7759,7 +7789,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>9.800000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7796,14 +7826,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7815,13 +7845,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7858,14 +7883,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45846</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7877,13 +7902,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7920,14 +7940,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45618</v>
+        <v>45405</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7940,7 +7960,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7977,14 +7997,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7996,8 +8016,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8034,14 +8059,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8055,11 +8080,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8096,14 +8121,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44816</v>
+        <v>44860</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8115,13 +8140,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>20.5</v>
+        <v>6.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8158,14 +8178,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45210</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8177,13 +8197,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8220,14 +8235,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8240,7 +8255,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8277,14 +8292,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8297,7 +8312,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8334,14 +8349,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45091</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8354,7 +8369,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8391,14 +8406,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45551</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8412,11 +8427,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.1</v>
+        <v>15.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8453,14 +8468,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45440</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8472,8 +8487,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8510,14 +8530,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45793</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8529,13 +8549,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8572,14 +8587,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45839</v>
+        <v>45232</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8591,8 +8606,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8629,14 +8649,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45598</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8650,11 +8670,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8691,14 +8711,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45196</v>
+        <v>45679</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8710,13 +8730,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8753,14 +8768,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8772,13 +8787,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8815,14 +8825,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45142</v>
+        <v>45918</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8834,13 +8844,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8877,14 +8882,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45232</v>
+        <v>45631</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8896,13 +8901,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8939,14 +8939,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45631</v>
+        <v>44992</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8996,14 +8996,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45639</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9015,8 +9015,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9053,14 +9058,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 8205-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45408</v>
+        <v>44244</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9072,13 +9077,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>10.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9115,14 +9115,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9172,14 +9172,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45093</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9191,13 +9191,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9234,14 +9229,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45846</v>
+        <v>45191</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,8 +9248,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9291,14 +9291,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>44349</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9405,14 +9405,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,13 +9424,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9467,14 +9462,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44349</v>
+        <v>45597</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9487,7 +9482,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9524,14 +9519,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>45598</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9543,8 +9538,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9581,14 +9581,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9638,14 +9638,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45155</v>
+        <v>45737</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9659,11 +9659,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9700,14 +9700,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44480</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9757,14 +9757,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45679</v>
+        <v>45607</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9814,14 +9814,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9835,11 +9835,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9876,14 +9876,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45056</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9933,14 +9933,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45957</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9952,13 +9952,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>15</v>
+        <v>3.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9995,14 +9990,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45142</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10016,11 +10011,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10057,14 +10052,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10076,8 +10071,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10114,14 +10114,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>44852</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10133,13 +10133,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10176,14 +10171,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>44973</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10196,7 +10191,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10233,14 +10228,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45320</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10252,13 +10247,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>15.5</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10295,14 +10285,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45169</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10314,13 +10304,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10357,14 +10342,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>45454</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10377,7 +10362,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10414,14 +10399,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45226</v>
+        <v>45454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10433,13 +10418,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10476,14 +10456,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>44473</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10496,7 +10476,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10533,14 +10513,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45793</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10553,7 +10533,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10590,14 +10570,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45974</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10610,7 +10590,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10647,14 +10627,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45049</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10666,8 +10646,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10704,14 +10689,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10723,13 +10708,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10766,14 +10746,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10787,11 +10767,11 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10828,14 +10808,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45233</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10847,13 +10827,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10890,14 +10865,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45454</v>
+        <v>45408</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10909,8 +10884,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10947,14 +10927,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45454</v>
+        <v>45056</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10967,7 +10947,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11004,14 +10984,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11023,8 +11003,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11061,14 +11046,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45714</v>
+        <v>45056</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11080,13 +11065,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>15.4</v>
+        <v>5.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11123,14 +11103,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45631</v>
+        <v>45989</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11143,7 +11123,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11180,14 +11160,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45639</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11200,7 +11180,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11237,14 +11217,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11256,13 +11236,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11299,14 +11274,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45769</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11318,13 +11293,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11361,14 +11331,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11380,13 +11350,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11423,14 +11388,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45588</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11442,13 +11407,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11485,14 +11445,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45799</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11504,13 +11464,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11547,14 +11502,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11567,7 +11522,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>22.4</v>
+        <v>6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11604,14 +11559,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>44973</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11629,7 +11584,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>15.9</v>
+        <v>2.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11666,14 +11621,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45576</v>
+        <v>44328</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11685,8 +11640,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11723,14 +11683,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45588</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11742,8 +11702,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11780,14 +11745,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11799,8 +11764,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11837,14 +11807,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45179</v>
+        <v>45034</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11858,11 +11828,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.1</v>
+        <v>8.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11899,14 +11869,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45607</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11918,8 +11888,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.1</v>
+        <v>3.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11956,14 +11931,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>45155</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11981,7 +11956,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12018,14 +11993,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>46045</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12038,7 +12013,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12075,14 +12050,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44328</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12094,13 +12069,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12137,14 +12107,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12156,13 +12126,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12199,14 +12164,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45316</v>
+        <v>45554</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12219,7 +12184,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12256,14 +12221,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45567</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12276,7 +12241,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12313,14 +12278,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12332,13 +12297,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12375,14 +12335,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45632</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12394,13 +12354,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12437,14 +12392,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44691</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12456,13 +12411,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12499,14 +12449,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45598</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12518,8 +12468,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12556,14 +12511,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>46014</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12576,7 +12531,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12613,14 +12568,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45597</v>
+        <v>46014</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12633,7 +12588,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>22.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12670,14 +12625,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45034</v>
+        <v>45408</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12691,11 +12646,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12732,14 +12687,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44992</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12751,8 +12706,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12789,14 +12749,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45918</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12808,8 +12768,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12846,14 +12811,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45777</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12867,11 +12832,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12908,14 +12873,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45191</v>
+        <v>45553</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12933,7 +12898,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12970,14 +12935,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45196</v>
+        <v>44873</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12989,13 +12954,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13032,14 +12992,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>45200</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13051,8 +13011,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13089,14 +13054,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45714</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13108,8 +13073,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>15.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13146,14 +13116,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>45769</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13165,8 +13135,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13203,14 +13178,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13223,7 +13198,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13260,14 +13235,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13279,13 +13254,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13322,14 +13292,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45740</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13341,8 +13311,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13379,14 +13354,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45588</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13398,13 +13373,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13441,14 +13411,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>45632</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13462,11 +13432,11 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G211" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13503,14 +13473,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13523,7 +13493,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13560,14 +13530,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45957</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13580,7 +13550,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13617,14 +13587,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45049</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13637,7 +13607,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13674,14 +13644,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>44523</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13693,13 +13663,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>9.300000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13736,14 +13701,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45405</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13756,7 +13721,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13793,14 +13758,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45974</v>
+        <v>45233</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13812,8 +13777,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13850,14 +13820,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>44816</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13869,8 +13839,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>20.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13907,14 +13882,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13924,11 +13899,6 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G219" t="n">
@@ -13969,14 +13939,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13989,7 +13959,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14026,14 +13996,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45989</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14046,7 +14016,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14083,14 +14053,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45567</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14103,7 +14073,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14140,14 +14110,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45618</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14160,7 +14130,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14197,14 +14167,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14216,8 +14186,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14254,14 +14229,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14273,13 +14248,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14316,14 +14286,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14337,11 +14307,11 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14378,14 +14348,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>44992</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14397,13 +14367,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14440,14 +14405,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46045</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14460,7 +14425,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14497,14 +14462,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14516,8 +14481,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14554,14 +14524,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>44480</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14574,7 +14544,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14611,14 +14581,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14630,8 +14600,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14668,14 +14643,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14687,8 +14662,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14725,14 +14705,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46014</v>
+        <v>45440</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14745,7 +14725,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>22.8</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14782,14 +14762,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46014</v>
+        <v>45777</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14801,8 +14781,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14839,14 +14824,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>45191</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14858,8 +14843,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>33.1</v>
+        <v>4.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14896,14 +14886,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46020</v>
+        <v>45196</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14915,8 +14905,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14953,14 +14948,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46018</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14973,7 +14968,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15010,14 +15005,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15029,8 +15024,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15067,14 +15067,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46019</v>
+        <v>45740</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15121,17 +15121,17 @@
       </c>
       <c r="R239" s="2" t="inlineStr"/>
     </row>
-    <row r="240" ht="15" customHeight="1">
+    <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 7969-2026</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46063.4653587963</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15182,63 +15182,6 @@
         <v>0</v>
       </c>
       <c r="R240" s="2" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>A 63777-2025</t>
-        </is>
-      </c>
-      <c r="B241" s="1" t="n">
-        <v>46019</v>
-      </c>
-      <c r="C241" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G241" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="n">
-        <v>0</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0</v>
-      </c>
-      <c r="L241" t="n">
-        <v>0</v>
-      </c>
-      <c r="M241" t="n">
-        <v>0</v>
-      </c>
-      <c r="N241" t="n">
-        <v>0</v>
-      </c>
-      <c r="O241" t="n">
-        <v>0</v>
-      </c>
-      <c r="P241" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q241" t="n">
-        <v>0</v>
-      </c>
-      <c r="R241" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45845.58730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45551.31601851852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45737</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>45744.34909722222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45762.70241898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>45622.69902777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,14 +2124,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 19030-2021</t>
+          <t>A 51415-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44308</v>
+        <v>44869.454375</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,8 +2143,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2181,14 +2186,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 51415-2022</t>
+          <t>A 49143-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44869.454375</v>
+        <v>44860.75229166666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2202,11 +2207,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2243,14 +2248,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 49143-2022</t>
+          <t>A 49163-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44860.75229166666</v>
+        <v>44860.90282407407</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2273,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2305,14 +2310,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49163-2022</t>
+          <t>A 19030-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44860.90282407407</v>
+        <v>44308</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,13 +2329,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,14 +2486,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45740-2022</t>
+          <t>A 48544-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44846.33037037037</v>
+        <v>44452</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2505,13 +2505,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2548,14 +2543,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 48544-2021</t>
+          <t>A 45934-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44452</v>
+        <v>44441</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2568,7 +2563,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2605,14 +2600,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 45934-2021</t>
+          <t>A 6353-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44441</v>
+        <v>44600</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2625,7 +2620,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2662,14 +2657,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6353-2022</t>
+          <t>A 45740-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44600</v>
+        <v>44846.33037037037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2681,8 +2676,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,14 +2781,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29244-2021</t>
+          <t>A 45213-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44360</v>
+        <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2800,13 +2800,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2843,14 +2838,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47607-2022</t>
+          <t>A 29244-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44852</v>
+        <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2862,8 +2857,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2900,14 +2900,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45213-2022</t>
+          <t>A 47607-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44844.44208333334</v>
+        <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44449</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44578</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44687.55239583334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,14 +4323,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45196</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4342,13 +4342,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4380,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>45631</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4405,7 +4400,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4437,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45631</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4462,7 +4457,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4499,14 +4494,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4519,7 +4514,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4563,7 +4558,7 @@
         <v>44859.69474537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4613,14 +4608,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>45210</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4632,8 +4627,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45210</v>
+        <v>45196</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4691,11 +4691,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4789,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45583</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,11 +4810,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45740</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4870,13 +4870,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4913,14 +4908,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4938,7 +4933,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4975,14 +4970,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45583</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4996,11 +4991,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9.300000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5058,11 +5053,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5099,14 +5094,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5118,8 +5113,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>45363</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45154</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5232,8 +5232,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.2</v>
+        <v>5.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5275,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5289,8 +5294,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>33.1</v>
+        <v>4.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5337,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45226</v>
+        <v>45799</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5348,11 +5358,11 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>6.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5389,14 +5399,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5409,7 +5419,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5446,14 +5456,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45154</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5465,13 +5475,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5508,14 +5513,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>45226</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5533,7 +5538,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5577,7 +5582,7 @@
         <v>45274.67429398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5627,14 +5632,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46018</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5647,7 +5652,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5684,14 +5689,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7969-2026</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46063.4653587963</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5705,11 +5710,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5746,14 +5751,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46020</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5765,8 +5770,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5810,7 +5820,7 @@
         <v>45567</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,14 +5870,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>44356</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5880,7 +5890,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5917,14 +5927,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45799</v>
+        <v>46045</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5936,13 +5946,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5979,14 +5984,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44356</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +6004,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6036,14 +6041,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46019</v>
+        <v>45551</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6055,8 +6060,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6093,14 +6103,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46019</v>
+        <v>44264</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6112,8 +6122,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6150,14 +6165,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45551</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6169,13 +6184,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6212,14 +6222,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44264</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6247,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6281,7 +6291,7 @@
         <v>45740.45893518518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6338,7 +6348,7 @@
         <v>45740.50429398148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6388,14 +6398,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6407,8 +6417,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6445,14 +6460,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45576</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6480,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6502,14 +6517,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6537,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6559,14 +6574,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6578,13 +6593,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6621,14 +6631,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6640,13 +6650,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6683,14 +6688,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6704,11 +6709,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>23.8</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6745,14 +6750,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6766,11 +6771,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.300000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6807,14 +6812,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6832,7 +6837,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6869,14 +6874,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45576</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6888,13 +6893,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>9.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6931,14 +6931,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45316</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6950,8 +6950,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6988,14 +6993,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7009,11 +7014,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7050,14 +7055,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7069,8 +7074,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7107,14 +7117,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45839</v>
+        <v>45918</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7127,7 +7137,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7164,14 +7174,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45316</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7184,7 +7194,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7221,14 +7231,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45179</v>
+        <v>45839</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7240,13 +7250,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7283,14 +7288,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7303,7 +7308,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7340,14 +7345,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44550</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7359,13 +7364,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>10.1</v>
+        <v>4.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7402,14 +7402,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44691</v>
+        <v>45179</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -7464,14 +7464,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7483,13 +7483,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7526,14 +7521,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7545,13 +7540,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7588,14 +7578,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45169</v>
+        <v>44550</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7609,11 +7599,11 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>10.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7650,14 +7640,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>44691</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7669,8 +7659,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>22.4</v>
+        <v>4.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7707,14 +7702,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7726,8 +7721,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7764,14 +7764,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7785,11 +7785,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>15.9</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7826,14 +7826,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45169</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7845,8 +7845,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7883,14 +7888,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45846</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7903,7 +7908,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>22.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7940,14 +7945,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45405</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7960,7 +7965,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7997,14 +8002,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8016,13 +8021,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8059,14 +8059,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8078,13 +8078,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8121,14 +8116,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44860</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,8 +8135,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>6.8</v>
+        <v>15.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8178,14 +8178,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8235,14 +8235,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8292,14 +8292,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>46014</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8349,14 +8349,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45405</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8406,14 +8406,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>15.5</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8468,14 +8468,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8487,13 +8487,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>15</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8530,14 +8525,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45793</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8550,7 +8545,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8587,14 +8582,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45232</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8606,13 +8601,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8649,14 +8639,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8674,7 +8664,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4.8</v>
+        <v>15.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8711,14 +8701,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45679</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8730,8 +8720,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8768,14 +8763,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>45793</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8788,7 +8783,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8825,14 +8820,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45918</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8845,7 +8840,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8882,14 +8877,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45631</v>
+        <v>46014</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8902,7 +8897,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>22.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8939,14 +8934,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44992</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8958,8 +8953,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8996,14 +8996,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>45957</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9015,13 +9015,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9058,14 +9053,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44244</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9078,7 +9073,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10.4</v>
+        <v>33.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9115,14 +9110,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>44860</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9135,7 +9130,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9172,14 +9167,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45093</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9192,7 +9187,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9229,14 +9224,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45191</v>
+        <v>46018</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9248,13 +9243,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9291,14 +9281,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9310,8 +9300,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9348,14 +9343,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44349</v>
+        <v>46020</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9368,7 +9363,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9405,14 +9400,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45232</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9424,8 +9419,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9462,14 +9462,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45597</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9519,14 +9519,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45598</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,13 +9538,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9581,14 +9576,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9601,7 +9596,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9638,14 +9633,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45737</v>
+        <v>45974</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9657,13 +9652,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9700,14 +9690,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>45679</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9757,14 +9747,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45607</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9777,7 +9767,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.1</v>
+        <v>5.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9814,14 +9804,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>46019</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9833,13 +9823,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9876,14 +9861,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9895,8 +9880,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9933,14 +9923,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45957</v>
+        <v>45631</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9953,7 +9943,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9990,14 +9980,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45142</v>
+        <v>46019</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10009,13 +9999,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10052,14 +10037,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>44992</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10071,13 +10056,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>2.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10114,14 +10094,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44852</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10133,8 +10113,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10171,14 +10156,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 8205-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44973</v>
+        <v>44244</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10191,7 +10176,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10228,14 +10213,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45320</v>
+        <v>45093</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10248,7 +10233,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10285,14 +10270,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45191</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10304,8 +10289,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10342,14 +10332,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45454</v>
+        <v>45989</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10362,7 +10352,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10399,14 +10389,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45454</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10456,14 +10446,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44473</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10476,7 +10466,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10513,14 +10503,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10533,7 +10523,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10570,14 +10560,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45974</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10627,14 +10617,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>44349</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10646,13 +10636,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10689,14 +10674,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45597</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10709,7 +10694,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10746,14 +10731,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45598</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10767,11 +10752,11 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10808,14 +10793,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10827,8 +10812,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10865,14 +10855,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45408</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10886,11 +10876,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10927,14 +10917,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45056</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10947,7 +10937,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10984,14 +10974,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11005,11 +10995,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11046,14 +11036,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45056</v>
+        <v>45737</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11065,8 +11055,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11103,14 +11098,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45989</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11123,7 +11118,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11160,14 +11155,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45639</v>
+        <v>45607</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11180,7 +11175,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11217,14 +11212,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11236,8 +11231,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11274,14 +11274,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45142</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11293,8 +11293,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11331,14 +11336,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11350,8 +11355,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11388,14 +11398,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45588</v>
+        <v>44852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11408,7 +11418,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11445,14 +11455,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>44973</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11465,7 +11475,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11502,14 +11512,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>45320</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11522,7 +11532,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11559,14 +11569,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44973</v>
+        <v>45454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11578,13 +11588,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11621,14 +11626,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44328</v>
+        <v>45454</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11640,13 +11645,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11683,14 +11683,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>44473</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11702,13 +11702,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11745,14 +11740,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11766,7 +11761,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -11807,14 +11802,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45034</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11826,13 +11821,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>8.1</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11869,14 +11859,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11888,13 +11878,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11931,14 +11916,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45155</v>
+        <v>45408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11952,11 +11937,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11993,14 +11978,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46045</v>
+        <v>45056</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12013,7 +11998,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12050,14 +12035,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12069,8 +12054,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12107,14 +12097,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45056</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12127,7 +12117,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12164,14 +12154,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45554</v>
+        <v>45639</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12184,7 +12174,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12221,14 +12211,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12241,7 +12231,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12278,14 +12268,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45588</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12298,7 +12288,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12335,14 +12325,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>44973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12354,8 +12344,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12392,14 +12387,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>44328</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12411,8 +12406,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12449,14 +12449,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45598</v>
+        <v>45034</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,11 +12470,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>8.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12511,14 +12511,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46014</v>
+        <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12530,8 +12530,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12568,14 +12573,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>46014</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12588,7 +12593,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>22.8</v>
+        <v>2.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12625,14 +12630,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45408</v>
+        <v>45554</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12644,13 +12649,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12687,14 +12687,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12706,13 +12706,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12749,14 +12744,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45598</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12770,11 +12765,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12811,14 +12806,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45408</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12832,11 +12827,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>9.6</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12873,14 +12868,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45553</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12894,11 +12889,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12935,14 +12930,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44873</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12954,8 +12949,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12992,14 +12992,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45200</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13013,11 +13013,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13054,14 +13054,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45714</v>
+        <v>45553</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>15.4</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13116,14 +13116,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45769</v>
+        <v>44873</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13135,13 +13135,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13178,14 +13173,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45200</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13197,8 +13192,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13235,14 +13235,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45714</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13254,8 +13254,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>15.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13292,14 +13297,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45769</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13313,11 +13318,11 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13354,14 +13359,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45588</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13374,7 +13379,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13411,14 +13416,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45632</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13430,13 +13435,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13473,14 +13473,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13492,8 +13492,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13530,14 +13535,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45588</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13550,7 +13555,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13587,14 +13592,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45049</v>
+        <v>45632</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13606,8 +13611,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13644,14 +13654,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44523</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13664,7 +13674,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13701,14 +13711,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45405</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13721,7 +13731,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>7.7</v>
+        <v>0.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13758,14 +13768,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45233</v>
+        <v>45049</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13777,13 +13787,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13820,14 +13825,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44816</v>
+        <v>44523</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13839,13 +13844,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>20.5</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13882,14 +13882,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>45405</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13939,14 +13939,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>45233</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13958,8 +13958,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13996,14 +14001,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>44816</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14015,8 +14020,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>20.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14053,14 +14063,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45567</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14073,7 +14083,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14110,14 +14120,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45618</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14130,7 +14140,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14167,14 +14177,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14186,13 +14196,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14229,14 +14234,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>45567</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14249,7 +14254,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14286,14 +14291,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45618</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14305,13 +14310,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14348,14 +14348,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44992</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14367,8 +14367,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14405,14 +14410,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14425,7 +14430,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14462,14 +14467,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14487,7 +14492,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14524,14 +14529,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44480</v>
+        <v>44992</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14544,7 +14549,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14581,14 +14586,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14600,13 +14605,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14643,14 +14643,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14668,7 +14668,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14705,14 +14705,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45440</v>
+        <v>44480</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14725,7 +14725,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14762,14 +14762,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45777</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14824,14 +14824,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45191</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14845,11 +14845,11 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14886,14 +14886,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45196</v>
+        <v>45440</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14905,13 +14905,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14948,14 +14943,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45777</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14967,8 +14962,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15005,14 +15005,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45191</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15067,14 +15067,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45740</v>
+        <v>45196</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15086,8 +15086,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15124,14 +15129,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15143,13 +15148,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z240"/>
+  <dimension ref="A1:Z239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,14 +937,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34170-2025</t>
+          <t>A 33377-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45845.58730324074</v>
+        <v>45128</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>11.3</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -996,308 +996,308 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Dofttaggsvamp
+Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 34170-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45845.58730324074</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 39250-2024</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45551.31601851852</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>8.9</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Tallticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 13834-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45737</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>4.7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 33377-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45128</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Gul taggsvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>45744.34909722222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45762.70241898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>45622.69902777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2124,14 +2124,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 51415-2022</t>
+          <t>A 19030-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44869.454375</v>
+        <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2143,13 +2143,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2186,14 +2181,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 49143-2022</t>
+          <t>A 51415-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44860.75229166666</v>
+        <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2207,11 +2202,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2248,14 +2243,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 49163-2022</t>
+          <t>A 49143-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44860.90282407407</v>
+        <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2273,7 +2268,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2310,14 +2305,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19030-2021</t>
+          <t>A 49163-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44308</v>
+        <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2329,8 +2324,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44452</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2543,14 +2543,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45934-2021</t>
+          <t>A 45740-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44441</v>
+        <v>44846.33037037037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2562,8 +2562,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2600,14 +2605,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6353-2022</t>
+          <t>A 45934-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44600</v>
+        <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2620,7 +2625,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2657,14 +2662,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 45740-2022</t>
+          <t>A 6353-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44846.33037037037</v>
+        <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2676,13 +2681,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44449</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44578</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44687.55239583334</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,14 +4323,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>45196</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4342,8 +4342,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4380,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45631</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4400,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4437,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>45631</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4457,7 +4462,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4494,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4514,7 +4519,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4558,7 +4563,7 @@
         <v>44859.69474537037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4608,14 +4613,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45210</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4627,13 +4632,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45196</v>
+        <v>45210</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4691,11 +4691,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45091</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>45789.43600694444</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4851,14 +4851,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45740</v>
+        <v>45091</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>45740</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4927,13 +4927,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4970,14 +4965,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45583</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4991,11 +4986,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5032,14 +5027,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45799</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5053,11 +5048,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45974</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5113,13 +5108,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5146,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45363</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5175,8 +5165,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5208,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5234,11 +5229,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5275,14 +5270,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>45583</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5300,7 +5295,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5337,14 +5332,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45799</v>
+        <v>45363</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5356,13 +5351,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5399,14 +5389,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5418,8 +5408,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5456,14 +5451,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45154</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5476,7 +5471,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5513,14 +5508,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45226</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5533,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5575,14 +5570,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5590,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5632,14 +5627,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5651,8 +5646,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5689,14 +5689,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5708,13 +5708,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>5.7</v>
+        <v>0.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5751,14 +5746,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>45226</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5776,7 +5771,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5813,14 +5808,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45567</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5870,14 +5865,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44356</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5889,8 +5884,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5927,14 +5927,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46045</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,8 +5946,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5984,14 +5989,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45567</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6004,7 +6009,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6041,14 +6046,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45551</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6062,11 +6067,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6103,14 +6108,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44264</v>
+        <v>44356</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6122,13 +6127,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6165,14 +6165,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45918</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6222,14 +6222,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>45551</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6243,11 +6243,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6284,14 +6284,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>44264</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,8 +6303,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6341,14 +6346,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6361,7 +6366,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6398,14 +6403,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6417,13 +6422,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6460,14 +6460,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6517,14 +6517,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6536,8 +6536,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6574,14 +6579,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6594,7 +6599,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6631,14 +6636,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6650,8 +6655,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6688,14 +6698,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6709,11 +6719,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.5</v>
+        <v>23.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6750,14 +6760,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6771,11 +6781,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>23.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6812,14 +6822,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45576</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6831,13 +6841,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>8.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6874,14 +6879,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45576</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6893,8 +6898,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6931,14 +6941,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6956,7 +6966,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6993,14 +7003,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7014,11 +7024,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>9.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7055,14 +7065,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7074,13 +7084,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7117,14 +7122,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45918</v>
+        <v>45316</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7137,7 +7142,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7174,14 +7179,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45316</v>
+        <v>45839</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7194,7 +7199,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7231,14 +7236,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45839</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7251,7 +7256,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7288,14 +7293,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7308,7 +7313,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7352,7 +7357,7 @@
         <v>45740.50280092593</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7409,7 +7414,7 @@
         <v>45179</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7464,14 +7469,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7484,7 +7489,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7521,14 +7526,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>44550</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7540,8 +7545,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>3.3</v>
+        <v>10.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7578,14 +7588,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44550</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7597,13 +7607,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7647,7 +7652,7 @@
         <v>44691</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7709,7 +7714,7 @@
         <v>45583.39818287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7771,7 +7776,7 @@
         <v>45169.34457175926</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7833,7 +7838,7 @@
         <v>45169</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7895,7 +7900,7 @@
         <v>45001.40960648148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7945,14 +7950,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7965,7 +7970,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8002,14 +8007,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8021,8 +8026,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>15.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8059,14 +8069,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8079,7 +8089,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8116,14 +8126,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8135,13 +8145,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>15.9</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8178,14 +8183,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45846</v>
+        <v>45957</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8198,7 +8203,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8235,14 +8240,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8255,7 +8260,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8292,14 +8297,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46014</v>
+        <v>45405</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8312,7 +8317,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8349,14 +8354,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45405</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8368,8 +8373,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8406,14 +8416,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>44860</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8425,13 +8435,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>6.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8468,14 +8473,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45989</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8488,7 +8493,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8525,14 +8530,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8545,7 +8550,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8582,14 +8587,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8602,7 +8607,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8639,14 +8644,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8658,13 +8663,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>15.5</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8701,14 +8701,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8720,13 +8720,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8763,14 +8758,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45793</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8783,7 +8778,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8820,14 +8815,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8840,7 +8835,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8877,14 +8872,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>46014</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8897,7 +8892,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>22.8</v>
+        <v>5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8934,14 +8929,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8959,7 +8954,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.8</v>
+        <v>15.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8996,14 +8991,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45957</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9015,8 +9010,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.2</v>
+        <v>15</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9053,14 +9053,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>45793</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>33.1</v>
+        <v>2.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9110,14 +9110,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44860</v>
+        <v>45232</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9129,8 +9129,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9167,14 +9172,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9186,8 +9191,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9224,14 +9234,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46018</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9244,7 +9254,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9281,14 +9291,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 7969-2026</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46063.4653587963</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9300,13 +9310,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9343,14 +9348,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46020</v>
+        <v>45679</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9363,7 +9368,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9400,14 +9405,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45232</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9419,13 +9424,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>5.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9462,14 +9462,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45631</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9519,14 +9519,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,8 +9538,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9576,14 +9581,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9595,8 +9600,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9633,14 +9643,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45974</v>
+        <v>44992</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9653,7 +9663,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9690,14 +9700,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45679</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9709,8 +9719,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9747,14 +9762,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9766,8 +9781,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9804,14 +9824,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46019</v>
+        <v>45093</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9824,7 +9844,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9861,14 +9881,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45191</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9882,11 +9902,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9923,14 +9943,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45631</v>
+        <v>46045</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9943,7 +9963,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9980,14 +10000,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46019</v>
+        <v>44349</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10000,7 +10020,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10037,14 +10057,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44992</v>
+        <v>45597</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10057,7 +10077,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>8.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10094,14 +10114,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10113,13 +10133,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10156,14 +10171,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8205-2021</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44244</v>
+        <v>45598</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10175,8 +10190,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>10.4</v>
+        <v>4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10213,14 +10233,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45093</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10233,7 +10253,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10270,14 +10290,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45191</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10289,13 +10309,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10332,14 +10347,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45989</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10352,7 +10367,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10389,14 +10404,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45737</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10408,8 +10423,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10446,14 +10466,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10466,7 +10486,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10503,14 +10523,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10523,7 +10543,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10560,14 +10580,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>45607</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10580,7 +10600,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10617,14 +10637,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44349</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10636,8 +10656,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10674,14 +10699,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45597</v>
+        <v>46014</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10694,7 +10719,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10731,14 +10756,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45598</v>
+        <v>46014</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10750,13 +10775,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>4</v>
+        <v>22.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10793,14 +10813,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10812,13 +10832,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>33.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10855,14 +10870,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45142</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10876,11 +10891,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10917,14 +10932,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10936,8 +10951,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10974,14 +10994,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>46018</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10993,13 +11013,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11036,14 +11051,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45737</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11057,11 +11072,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11098,14 +11113,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>46020</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11118,7 +11133,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11155,14 +11170,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45607</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11175,7 +11190,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11212,14 +11227,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>44852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11231,13 +11246,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11274,14 +11284,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45142</v>
+        <v>44973</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11293,13 +11303,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11336,14 +11341,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>46019</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11355,13 +11360,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11398,14 +11398,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44852</v>
+        <v>46019</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11418,7 +11418,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11455,14 +11455,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44973</v>
+        <v>45320</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11475,7 +11475,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11512,14 +11512,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45320</v>
+        <v>45454</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11569,14 +11569,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
         <v>45454</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11626,14 +11626,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45454</v>
+        <v>44473</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11683,14 +11683,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44473</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11702,8 +11702,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11740,14 +11745,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11759,13 +11764,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11802,14 +11802,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11859,14 +11859,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11878,8 +11878,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11916,14 +11921,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45408</v>
+        <v>45056</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11935,13 +11940,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>8.800000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11978,14 +11978,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45056</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11997,8 +11997,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12035,14 +12040,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45056</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12054,13 +12059,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12097,14 +12097,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45056</v>
+        <v>45639</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12154,14 +12154,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45639</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12211,14 +12211,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45588</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12268,14 +12268,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45588</v>
+        <v>44973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12287,8 +12287,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12325,14 +12330,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44973</v>
+        <v>44328</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12346,11 +12351,11 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12387,14 +12392,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44328</v>
+        <v>45034</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,11 +12413,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12449,14 +12454,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45034</v>
+        <v>45155</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,11 +12475,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12511,14 +12516,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45155</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12530,13 +12535,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12573,14 +12573,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45554</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12630,14 +12630,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45554</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12687,14 +12687,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45598</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12706,8 +12706,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12744,14 +12749,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45598</v>
+        <v>45408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12769,7 +12774,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12806,14 +12811,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45408</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12831,7 +12836,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12868,14 +12873,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12889,11 +12894,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12930,14 +12935,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12955,7 +12960,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.5</v>
+        <v>9.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12992,14 +12997,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45553</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13017,7 +13022,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>9.6</v>
+        <v>1.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13054,14 +13059,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45553</v>
+        <v>44873</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13073,13 +13078,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13116,14 +13116,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44873</v>
+        <v>45200</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13135,8 +13135,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13173,14 +13178,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45200</v>
+        <v>45714</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13194,11 +13199,11 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.4</v>
+        <v>15.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13235,14 +13240,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45714</v>
+        <v>45769</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13256,11 +13261,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>15.4</v>
+        <v>2.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13297,14 +13302,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45769</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13316,13 +13321,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13359,14 +13359,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13416,14 +13416,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13435,8 +13435,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13473,14 +13478,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45588</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13492,13 +13497,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13535,14 +13535,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45588</v>
+        <v>45632</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13554,8 +13554,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13592,14 +13597,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45632</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13611,13 +13616,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13654,14 +13654,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13711,14 +13711,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45049</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13768,14 +13768,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45049</v>
+        <v>44523</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13825,14 +13825,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44523</v>
+        <v>45405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13882,14 +13882,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45405</v>
+        <v>45233</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13901,8 +13901,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13939,14 +13944,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45233</v>
+        <v>44816</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13964,7 +13969,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>20.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14001,14 +14006,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44816</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14020,13 +14025,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>20.5</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14063,14 +14063,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14120,14 +14120,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14177,14 +14177,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45567</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14234,14 +14234,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45567</v>
+        <v>45618</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14291,14 +14291,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45618</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14310,8 +14310,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14348,14 +14353,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14367,13 +14372,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>6.7</v>
+        <v>0.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14410,14 +14410,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14429,8 +14429,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.2</v>
+        <v>5.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14467,14 +14472,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>44992</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14486,13 +14491,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14529,14 +14529,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44992</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14586,14 +14586,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14605,8 +14605,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14643,14 +14648,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>44480</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14662,13 +14667,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14705,14 +14705,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44480</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14722,6 +14722,11 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G233" t="n">
@@ -14762,14 +14767,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14787,7 +14792,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14824,14 +14829,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45440</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14843,13 +14848,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14886,14 +14886,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45440</v>
+        <v>45777</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14905,8 +14905,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14943,14 +14948,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45777</v>
+        <v>45191</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14964,11 +14969,11 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15005,14 +15010,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15030,7 +15035,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15064,17 +15069,17 @@
       </c>
       <c r="R238" s="2" t="inlineStr"/>
     </row>
-    <row r="239" ht="15" customHeight="1">
+    <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45196</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15086,13 +15091,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15125,63 +15125,6 @@
         <v>0</v>
       </c>
       <c r="R239" s="2" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>A 13654-2024</t>
-        </is>
-      </c>
-      <c r="B240" s="1" t="n">
-        <v>45390.4814699074</v>
-      </c>
-      <c r="C240" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G240" t="n">
-        <v>4</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>0</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0</v>
-      </c>
-      <c r="L240" t="n">
-        <v>0</v>
-      </c>
-      <c r="M240" t="n">
-        <v>0</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0</v>
-      </c>
-      <c r="P240" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q240" t="n">
-        <v>0</v>
-      </c>
-      <c r="R240" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62471-2023</t>
+          <t>A 25843-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45268</v>
+        <v>44343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,134 +806,134 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Bårdlav
+Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62471-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Kryddspindling
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 25843-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Bårdlav
-Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45128</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45845.58730324074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,14 +1119,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 39250-2024</t>
+          <t>A 13834-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45551.31601851852</v>
+        <v>45737</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1140,20 +1140,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8.9</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1178,126 +1178,126 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Slåtterfibbla
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 39250-2024</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45551.31601851852</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp
 Tallticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 13834-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Slåtterfibbla
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 56825-2021</t>
+          <t>A 41468-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44480</v>
+        <v>45560</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,8 +1495,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>14.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1508,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1520,488 +1525,483 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 55711-2024</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45622.69902777778</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 56825-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44480</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H13" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 41468-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 55711-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45622.69902777778</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,14 +2486,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 48544-2021</t>
+          <t>A 45740-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44452</v>
+        <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2505,8 +2505,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2543,14 +2548,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45740-2022</t>
+          <t>A 48544-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44846.33037037037</v>
+        <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2562,13 +2567,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44449</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44578</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,14 +4209,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44480</v>
+        <v>45405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4266,14 +4266,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>44264</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4285,8 +4285,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>6.6</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4323,14 +4328,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45196</v>
+        <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4342,13 +4347,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>44860</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45631</v>
+        <v>44356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4499,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>45034</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,8 +4518,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4556,14 +4561,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4576,7 +4581,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4613,14 +4618,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>44992</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4633,7 +4638,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4675,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45210</v>
+        <v>45777</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4691,11 +4696,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4732,14 +4737,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>45799</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4751,8 +4756,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4789,14 +4799,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45191</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4814,7 +4824,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4851,14 +4861,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45091</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4871,7 +4881,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4908,14 +4918,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45740</v>
+        <v>45196</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4927,8 +4937,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4965,14 +4980,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4984,13 +4999,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>6.2</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5027,14 +5037,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45799</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5046,13 +5056,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>6.5</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45974</v>
+        <v>44550</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5108,8 +5113,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>6</v>
+        <v>10.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5146,14 +5156,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5165,13 +5175,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5208,14 +5213,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5229,11 +5234,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9.300000000000001</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5270,14 +5275,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45583</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5289,13 +5294,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5332,14 +5332,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45363</v>
+        <v>45740</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5389,14 +5389,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5410,11 +5410,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5451,14 +5451,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5470,8 +5470,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5508,14 +5513,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>45093</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5527,13 +5532,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5570,14 +5570,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45320</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5627,14 +5627,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45154</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5646,13 +5646,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5689,14 +5684,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45154</v>
+        <v>44873</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5704,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5746,14 +5741,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45226</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5767,11 +5762,11 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5808,14 +5803,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5827,8 +5822,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5865,14 +5865,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,13 +5884,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5927,14 +5922,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5946,13 +5941,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5989,14 +5979,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45567</v>
+        <v>44973</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +5999,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6046,14 +6036,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6071,7 +6061,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6108,14 +6098,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44356</v>
+        <v>45957</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6128,7 +6118,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6165,14 +6155,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45918</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6185,7 +6175,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6222,14 +6212,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45551</v>
+        <v>44480</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6241,13 +6231,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6284,14 +6269,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44264</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6303,13 +6288,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6346,14 +6326,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45918</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6366,7 +6346,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6403,14 +6383,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45974</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6423,7 +6403,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6460,14 +6440,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45737</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6479,8 +6459,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6517,14 +6502,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6536,13 +6521,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6579,14 +6559,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6599,7 +6579,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6636,14 +6616,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45554</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6655,13 +6635,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6698,14 +6673,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6719,11 +6694,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>23.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6760,14 +6735,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6779,13 +6754,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>8.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6822,14 +6792,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45576</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6842,7 +6812,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6879,14 +6849,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6941,14 +6911,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6960,13 +6930,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>9.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7003,14 +6968,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7022,13 +6987,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>7.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7065,14 +7025,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7085,7 +7045,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7122,14 +7082,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45316</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7141,8 +7101,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7179,14 +7144,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45839</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7198,8 +7163,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7236,14 +7206,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7255,8 +7225,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>23.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7293,14 +7268,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7312,8 +7287,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7350,14 +7330,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7367,6 +7347,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -7407,14 +7392,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45179</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7428,11 +7413,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7469,14 +7454,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7488,8 +7473,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7526,14 +7516,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44550</v>
+        <v>44473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7545,13 +7535,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>10.1</v>
+        <v>2.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7588,14 +7573,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>44973</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7607,8 +7592,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7645,14 +7635,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44691</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7666,11 +7656,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7707,14 +7697,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7732,7 +7722,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7769,14 +7759,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45583</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7794,7 +7784,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7831,14 +7821,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45169</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7850,13 +7840,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7893,14 +7878,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>45839</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7913,7 +7898,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>22.4</v>
+        <v>3.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7950,14 +7935,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45598</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7969,8 +7954,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8007,14 +7997,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8026,13 +8016,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>15.9</v>
+        <v>6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8069,14 +8054,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8089,7 +8074,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8126,14 +8111,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8146,7 +8131,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8183,14 +8168,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45957</v>
+        <v>45989</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8203,7 +8188,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8240,14 +8225,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45846</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8260,7 +8245,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8297,14 +8282,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45405</v>
+        <v>45363</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8317,7 +8302,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8354,14 +8339,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8373,13 +8358,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8416,14 +8396,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44860</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8436,7 +8416,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8473,14 +8453,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45989</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8492,8 +8472,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8530,14 +8515,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45846</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8550,7 +8535,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8587,14 +8572,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8606,8 +8591,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8644,14 +8634,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8664,7 +8654,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8701,14 +8691,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8720,8 +8710,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8758,14 +8753,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8777,8 +8772,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8815,14 +8815,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45142</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8834,8 +8834,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8872,14 +8877,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45631</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8892,7 +8897,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8929,14 +8934,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8954,7 +8959,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8991,14 +8996,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9016,7 +9021,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>15</v>
+        <v>4.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9053,14 +9058,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45793</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9073,7 +9078,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9110,14 +9115,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45232</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9129,13 +9134,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9172,14 +9172,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.8</v>
+        <v>15.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9234,14 +9234,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45793</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9291,14 +9291,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45679</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,8 +9367,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9405,14 +9410,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9425,7 +9430,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9462,14 +9467,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45631</v>
+        <v>44349</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9482,7 +9487,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9519,14 +9524,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,13 +9543,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9581,14 +9581,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9600,13 +9600,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9643,14 +9638,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44992</v>
+        <v>44480</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9663,7 +9658,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>8.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9700,14 +9695,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>46045</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9719,13 +9714,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9762,14 +9752,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9781,13 +9771,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9824,14 +9809,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45093</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9843,8 +9828,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9881,14 +9871,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45191</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9902,11 +9892,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9943,14 +9933,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>46045</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9962,8 +9952,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10000,14 +9995,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44349</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10019,8 +10014,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10057,14 +10057,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45597</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10114,14 +10114,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10171,14 +10171,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45598</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10190,13 +10190,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10233,14 +10228,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10253,7 +10248,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10290,14 +10285,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45714</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10309,8 +10304,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>15.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10347,14 +10347,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>46014</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>22.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10404,14 +10404,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45737</v>
+        <v>46014</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10423,13 +10423,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10466,14 +10461,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10485,8 +10480,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>45103.56412037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10580,14 +10580,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45607</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.1</v>
+        <v>33.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10637,14 +10637,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>46020</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10656,13 +10656,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10699,14 +10694,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46014</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10719,7 +10714,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10756,14 +10751,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46014</v>
+        <v>46018</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10776,7 +10771,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>22.8</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10813,14 +10808,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10832,8 +10827,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>33.1</v>
+        <v>9.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10870,14 +10870,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45142</v>
+        <v>45553</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10891,11 +10891,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10932,14 +10932,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10994,14 +10994,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46018</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11051,14 +11051,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7969-2026</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46063.4653587963</v>
+        <v>46019</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11070,13 +11070,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11113,14 +11108,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46020</v>
+        <v>44852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11133,7 +11128,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11170,14 +11165,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11189,8 +11184,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11227,14 +11227,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44852</v>
+        <v>45191</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11246,8 +11246,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11284,14 +11289,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44973</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11304,7 +11309,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11341,14 +11346,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
         <v>46019</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11361,7 +11366,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11398,14 +11403,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46019</v>
+        <v>44992</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11418,7 +11423,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11455,14 +11460,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45320</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11475,7 +11480,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11512,14 +11517,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45454</v>
+        <v>45588</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11532,7 +11537,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11569,14 +11574,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45454</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11589,7 +11594,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11626,14 +11631,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44473</v>
+        <v>45567</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11646,7 +11651,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11683,14 +11688,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11702,13 +11707,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11745,14 +11745,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11764,8 +11764,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11802,14 +11807,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45618</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11822,7 +11827,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>5.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11859,14 +11864,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45408</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11878,13 +11883,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>8.800000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11921,14 +11921,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45056</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11978,14 +11978,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45091</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11997,13 +11997,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12040,14 +12035,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45056</v>
+        <v>45440</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12060,7 +12055,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12097,14 +12092,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45639</v>
+        <v>45196</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12116,8 +12111,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12154,14 +12154,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45232</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12173,8 +12173,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12211,14 +12216,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45588</v>
+        <v>45639</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12231,7 +12236,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12268,14 +12273,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44973</v>
+        <v>45408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12289,11 +12294,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12330,14 +12335,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44328</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12349,13 +12354,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12392,14 +12392,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45034</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12411,13 +12411,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>8.1</v>
+        <v>1.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12454,14 +12449,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45155</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12475,11 +12470,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12516,14 +12511,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12535,8 +12530,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.7</v>
+        <v>7.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12573,14 +12573,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45554</v>
+        <v>45679</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12630,14 +12630,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45169</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12649,8 +12649,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12687,14 +12692,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45598</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12706,13 +12711,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12749,14 +12749,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45408</v>
+        <v>45226</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12811,14 +12811,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12830,13 +12830,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12873,14 +12868,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12892,13 +12887,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12935,14 +12925,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45631</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12954,13 +12944,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G203" t="n">
-        <v>9.6</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12997,14 +12982,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45553</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13016,13 +13001,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13059,14 +13039,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44873</v>
+        <v>45769</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13078,8 +13058,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13116,14 +13101,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45200</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13137,11 +13122,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13178,14 +13163,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45714</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13197,13 +13182,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>15.4</v>
+        <v>22.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13240,14 +13220,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45769</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13265,7 +13245,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.4</v>
+        <v>15.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13302,14 +13282,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45576</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13359,14 +13339,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13379,7 +13359,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13416,14 +13396,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13435,13 +13415,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13478,14 +13453,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45588</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13498,7 +13473,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13535,14 +13510,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45632</v>
+        <v>45200</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13556,11 +13531,11 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13597,14 +13572,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>44816</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13616,8 +13591,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>2.8</v>
+        <v>20.5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13654,14 +13634,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45210</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13673,8 +13653,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13711,14 +13696,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45049</v>
+        <v>45551</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13730,8 +13715,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13768,14 +13758,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44523</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13787,8 +13777,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13825,14 +13820,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45405</v>
+        <v>45598</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13844,8 +13839,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13882,14 +13882,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45233</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13944,14 +13944,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44816</v>
+        <v>45056</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13963,13 +13963,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>20.5</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14006,14 +14001,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>45233</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14025,8 +14020,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14063,14 +14063,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>45454</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14120,14 +14120,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45454</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14177,14 +14177,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45567</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14196,8 +14196,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14234,14 +14239,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45618</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14253,8 +14258,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14291,14 +14301,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45588</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14310,13 +14320,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14353,14 +14358,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>45179</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14372,8 +14377,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14410,14 +14420,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45607</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14429,13 +14439,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>5.6</v>
+        <v>0.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14472,14 +14477,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44992</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14491,8 +14496,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14529,14 +14539,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14549,7 +14559,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14586,14 +14596,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>44328</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14607,11 +14617,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14648,14 +14658,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44480</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14665,6 +14675,11 @@
       <c r="E232" t="inlineStr">
         <is>
           <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -14705,14 +14720,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45316</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14724,13 +14739,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14767,14 +14777,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45567</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14786,13 +14796,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14829,14 +14834,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45440</v>
+        <v>45632</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14848,8 +14853,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14886,14 +14896,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45777</v>
+        <v>44691</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14907,11 +14917,11 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14948,14 +14958,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45191</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14967,13 +14977,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15010,14 +15015,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45196</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15029,13 +15034,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15072,14 +15072,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45597</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25843-2021</t>
+          <t>A 62471-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44343</v>
+        <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,145 +806,145 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Kryddspindling
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 25843-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bårdlav
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62471-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45268</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Kryddspindling
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 33377-2023</t>
+          <t>A 34170-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45128</v>
+        <v>45845.58730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>11.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -996,46 +996,46 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp
-Gul taggsvamp</t>
+          <t>Svart trolldruva
+Blåsippa</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 34170-2025</t>
+          <t>A 39250-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45845.58730324074</v>
+        <v>45551.31601851852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,20 +1049,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11.3</v>
+        <v>8.9</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1087,32 +1087,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva
-Blåsippa</t>
+          <t>Motaggsvamp
+Tallticka</t>
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
         <v>45737</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1210,14 +1210,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 39250-2024</t>
+          <t>A 33377-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45551.31601851852</v>
+        <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,11 +1231,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1269,32 +1269,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp
-Tallticka</t>
+          <t>Dofttaggsvamp
+Gul taggsvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
         <v/>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41468-2024</t>
+          <t>A 56825-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45560</v>
+        <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,13 +1495,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>14.2</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1513,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1525,483 +1520,488 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 41468-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 55711-2024</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45622.69902777778</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 56825-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44480</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44449</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44578</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4209,14 +4209,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45405</v>
+        <v>44480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4266,14 +4266,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44264</v>
+        <v>45196</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4287,11 +4287,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4328,14 +4328,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44523</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44860</v>
+        <v>45631</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44356</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4499,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45034</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,13 +4518,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>8.1</v>
+        <v>4.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4561,14 +4556,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4581,7 +4576,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4618,14 +4613,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44992</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4638,7 +4633,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4675,14 +4670,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45777</v>
+        <v>45210</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,11 +4691,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4737,14 +4732,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45799</v>
+        <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4756,13 +4751,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45191</v>
+        <v>45583</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4820,11 +4810,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4861,14 +4851,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4880,8 +4870,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4918,14 +4913,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45196</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4939,11 +4934,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4980,14 +4975,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5000,7 +4995,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45363</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5057,7 +5052,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44550</v>
+        <v>45226</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5115,11 +5110,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>10.1</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5156,14 +5151,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45154</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5176,7 +5171,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5213,14 +5208,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5232,13 +5227,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5275,14 +5265,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5294,8 +5284,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5332,14 +5327,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45740</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5351,8 +5346,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5389,14 +5389,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5408,13 +5408,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5451,14 +5446,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>44356</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5470,13 +5465,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5513,14 +5503,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45093</v>
+        <v>45551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5532,8 +5522,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5570,14 +5565,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45320</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5590,7 +5585,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5627,14 +5622,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45154</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5647,7 +5642,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5684,14 +5679,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44873</v>
+        <v>44264</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5703,8 +5698,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5741,14 +5741,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5760,13 +5760,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5803,14 +5798,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>45576</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5822,13 +5817,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5865,14 +5855,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5884,8 +5874,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5922,14 +5917,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5937,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5979,14 +5974,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44973</v>
+        <v>45316</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5994,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6036,14 +6031,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6061,7 +6056,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6098,14 +6093,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45957</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6117,8 +6112,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6155,14 +6155,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6174,8 +6174,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>23.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6212,14 +6217,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44480</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6231,8 +6236,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6269,14 +6279,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6288,8 +6298,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6326,14 +6341,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45918</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6345,8 +6360,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6383,14 +6403,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45974</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6403,7 +6423,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6440,14 +6460,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45737</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6485,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6502,14 +6522,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6542,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6559,14 +6579,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45056</v>
+        <v>45179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6578,8 +6598,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6616,14 +6641,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45554</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6661,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6673,14 +6698,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45408</v>
+        <v>44550</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,11 +6719,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6735,14 +6760,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>44691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6754,8 +6779,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6792,14 +6822,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6811,8 +6841,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>7.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6849,14 +6884,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45839</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6868,13 +6903,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6911,14 +6941,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6930,8 +6960,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6968,14 +7003,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45405</v>
+        <v>45169</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6987,8 +7022,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7025,14 +7065,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7045,7 +7085,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.9</v>
+        <v>22.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7082,14 +7122,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7107,7 +7147,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.300000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7144,14 +7184,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7163,13 +7203,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7206,14 +7241,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7227,11 +7262,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>23.8</v>
+        <v>15.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7268,14 +7303,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7287,13 +7322,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>9.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7330,14 +7360,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45918</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7349,13 +7379,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7392,14 +7417,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>45405</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7411,13 +7436,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7454,14 +7474,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7475,11 +7495,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7516,14 +7536,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44473</v>
+        <v>44860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7536,7 +7556,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7573,14 +7593,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44973</v>
+        <v>45846</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7592,13 +7612,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7635,14 +7650,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7654,13 +7669,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7697,14 +7707,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7716,13 +7726,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7759,14 +7764,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45583</v>
+        <v>45232</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7784,7 +7789,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7821,14 +7826,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7841,7 +7846,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7878,14 +7883,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45839</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7898,7 +7903,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7935,14 +7940,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45598</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7954,13 +7959,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7997,14 +7997,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8016,8 +8016,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8054,14 +8059,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8073,8 +8078,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8111,14 +8121,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>45793</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8131,7 +8141,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8168,14 +8178,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45989</v>
+        <v>45679</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8188,7 +8198,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8225,14 +8235,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8245,7 +8255,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8282,14 +8292,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45363</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8301,8 +8311,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8339,14 +8354,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8359,7 +8374,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8396,14 +8411,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8416,7 +8431,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8453,14 +8468,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45631</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8472,13 +8487,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8515,14 +8525,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45846</v>
+        <v>44992</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8535,7 +8545,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8572,14 +8582,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8593,11 +8603,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8634,14 +8644,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45093</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8654,7 +8664,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8691,14 +8701,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>45191</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8712,11 +8722,11 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8753,14 +8763,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8772,13 +8782,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8815,14 +8820,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45142</v>
+        <v>45957</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8834,13 +8839,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8877,14 +8877,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45631</v>
+        <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8934,14 +8934,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45597</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8953,13 +8953,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8996,14 +8991,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45598</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9017,11 +9012,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9058,14 +9053,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9078,7 +9073,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9115,14 +9110,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>45737</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9134,8 +9129,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9172,14 +9172,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9191,13 +9191,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>15.5</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9234,14 +9229,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45793</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9254,7 +9249,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9291,14 +9286,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9311,7 +9306,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9348,14 +9343,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45974</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9367,13 +9362,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9410,14 +9400,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>45607</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9430,7 +9420,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9467,14 +9457,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44349</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9486,8 +9476,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9524,14 +9519,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9543,8 +9538,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9581,14 +9581,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45142</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9600,8 +9600,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9638,14 +9643,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44480</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9657,8 +9662,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9695,14 +9705,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46045</v>
+        <v>45989</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9715,7 +9725,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9752,14 +9762,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9772,7 +9782,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9809,14 +9819,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9828,13 +9838,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9871,14 +9876,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>44852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9890,13 +9895,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9933,14 +9933,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>44973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9952,13 +9952,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9995,14 +9990,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10014,13 +10009,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10057,14 +10047,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10077,7 +10067,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10114,14 +10104,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>45320</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10134,7 +10124,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10171,14 +10161,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45454</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10191,7 +10181,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10228,14 +10218,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45454</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10248,7 +10238,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10285,14 +10275,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45714</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10306,11 +10296,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>15.4</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10347,14 +10337,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>46014</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10366,8 +10356,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>22.8</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10404,14 +10399,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46014</v>
+        <v>44473</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10424,7 +10419,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10461,14 +10456,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,11 +10477,11 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10523,14 +10518,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10542,8 +10537,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10580,14 +10580,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>33.1</v>
+        <v>1.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10637,14 +10637,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46020</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10694,14 +10694,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10713,8 +10713,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10751,14 +10756,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46018</v>
+        <v>46045</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10771,7 +10776,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10808,14 +10813,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10827,13 +10832,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>9.6</v>
+        <v>3.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10870,14 +10870,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45553</v>
+        <v>45056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10889,13 +10889,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10932,14 +10927,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10957,7 +10952,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10994,14 +10989,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11014,7 +11009,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11051,14 +11046,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46019</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11071,7 +11066,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11108,14 +11103,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44852</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11128,7 +11123,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>6.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11165,14 +11160,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 7969-2026</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46063.4653587963</v>
+        <v>45056</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11184,13 +11179,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11227,14 +11217,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45191</v>
+        <v>45639</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11246,13 +11236,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11289,14 +11274,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11309,7 +11294,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11346,14 +11331,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46019</v>
+        <v>45588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11366,7 +11351,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11403,14 +11388,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44992</v>
+        <v>44973</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11422,8 +11407,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>8.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11460,14 +11450,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>44328</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11479,8 +11469,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11517,14 +11512,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45588</v>
+        <v>46014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11537,7 +11532,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11574,14 +11569,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>46014</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11594,7 +11589,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>22.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11631,14 +11626,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45567</v>
+        <v>45034</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11650,8 +11645,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11688,14 +11688,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.8</v>
+        <v>33.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11745,14 +11745,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>46018</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11764,13 +11764,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11807,14 +11802,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45618</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11826,8 +11821,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>5.8</v>
+        <v>2.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11864,14 +11864,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>46020</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11921,14 +11921,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11978,14 +11978,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45091</v>
+        <v>46019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12035,14 +12035,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45440</v>
+        <v>46019</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12092,14 +12092,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12113,11 +12113,11 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12154,14 +12154,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45232</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12173,13 +12173,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12216,14 +12211,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45639</v>
+        <v>45554</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12236,7 +12231,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12273,14 +12268,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45408</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12292,13 +12287,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12335,14 +12325,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45598</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12354,8 +12344,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12392,14 +12387,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>45408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12411,8 +12406,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>45169.35862268518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12511,14 +12511,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45155</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12532,11 +12532,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12573,14 +12573,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45679</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12592,8 +12592,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>2.3</v>
+        <v>9.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12630,14 +12635,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45169</v>
+        <v>45553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12651,11 +12656,11 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12692,14 +12697,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>44873</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12712,7 +12717,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12749,14 +12754,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45226</v>
+        <v>45200</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12774,7 +12779,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12811,14 +12816,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12830,8 +12835,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>4.6</v>
+        <v>15.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12868,14 +12878,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45049</v>
+        <v>45769</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12887,8 +12897,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12925,14 +12940,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45631</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12945,7 +12960,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12982,14 +12997,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13002,7 +13017,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13039,14 +13054,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45769</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13060,11 +13075,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13101,14 +13116,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>45588</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13120,13 +13135,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13163,14 +13173,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>45632</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13182,8 +13192,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>22.4</v>
+        <v>4.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13220,14 +13235,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13239,13 +13254,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>15.9</v>
+        <v>2.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13282,14 +13292,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45576</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13302,7 +13312,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>0.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13339,14 +13349,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45049</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13359,7 +13369,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13396,14 +13406,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>44523</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13416,7 +13426,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13453,14 +13463,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>45405</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13473,7 +13483,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13510,14 +13520,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45200</v>
+        <v>45233</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13535,7 +13545,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13579,7 +13589,7 @@
         <v>44816</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13634,14 +13644,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45210</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13653,13 +13663,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13696,14 +13701,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45551</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13715,13 +13720,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13758,14 +13758,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13777,13 +13777,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13820,14 +13815,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45598</v>
+        <v>45567</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13839,13 +13834,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13882,14 +13872,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45618</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13901,13 +13891,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13944,14 +13929,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45056</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13963,8 +13948,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14001,14 +13991,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45233</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14020,13 +14010,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14063,14 +14048,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45454</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14082,8 +14067,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14120,14 +14110,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45454</v>
+        <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14140,7 +14130,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14177,14 +14167,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14196,13 +14186,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14239,14 +14224,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14260,11 +14245,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14301,14 +14286,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45588</v>
+        <v>44480</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14321,7 +14306,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14358,14 +14343,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45179</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14383,7 +14368,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14420,14 +14405,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45607</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14439,8 +14424,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G228" t="n">
-        <v>0.1</v>
+        <v>4.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14477,14 +14467,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>45440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14496,13 +14486,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14539,14 +14524,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45777</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14558,8 +14543,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14596,14 +14586,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44328</v>
+        <v>45191</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14617,11 +14607,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14658,14 +14648,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45196</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14679,11 +14669,11 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14720,14 +14710,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45316</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14740,7 +14730,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14777,14 +14767,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45567</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14796,8 +14786,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14834,14 +14829,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45632</v>
+        <v>45740</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14853,13 +14848,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14896,14 +14886,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44691</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14921,7 +14911,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14958,14 +14948,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14977,8 +14967,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15015,14 +15010,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15034,8 +15029,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>3.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15072,14 +15072,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45597</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45845.58730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45551.31601851852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45737</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>45744.34909722222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45762.70241898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>45622.69902777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44449</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44578</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45196</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>45699.42703703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45631</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>45607.4571875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44859.69474537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44687.55239583334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45210</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45583</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45737.55307870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45155.67111111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45420.56232638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45363</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45226</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45154</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45705.37321759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45583.3955324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45200.55300925926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44356</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45740.45893518518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>45740.50429398148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>44264</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45730.68177083333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45576</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>45799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45825.43447916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45316</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45827.36601851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>45827.34989583334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>45827.34599537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>45827.36146990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>45827.35523148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45827.37133101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45274.68616898148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45832.54032407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45740.50280092593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45586.42438657407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44550</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>45583.39818287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>45839</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>45169.34457175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>45169</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45001.40960648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45908.36978009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44628.72158564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45155.35126157408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45729.3569212963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45918</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45405</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45769.39085648148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45846</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45091.36854166666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45931.36364583333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45232</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>45881.66729166666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45881.38631944444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>45817.47966435185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45882.33378472222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>45882.33851851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>45793</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>45679</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44938.65002314815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>45882.34303240741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45937.59658564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45937.58998842593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45631</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44992</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45205.78081018518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>45093</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>45191</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>45952.37326388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45957</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45597</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45598</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45537.30190972222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45737</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45103.56412037037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45966.40912037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45973.57314814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45974</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45607</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45607.46363425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45978.31872685185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>45142</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>45764.52758101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>45989</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>45964.53953703704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>45950.6121875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45964.48070601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45964.50170138889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45320</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45454</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45454</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45994.78494212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45994.81884259259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44473</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>45994.93306712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>45752.38246527778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>45554.60052083333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45769.65043981482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>46045</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>46006.4887962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45155.66938657407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>46008.97306712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>46008.97842592592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>46008.98494212963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45056</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45639</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45474.65596064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44973</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44328</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>46014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>46014</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>45034</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>46059.36799768519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>46018</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>46063.4653587963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>46020</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45985.63418981482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>46019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>46019</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45155</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45474.67520833333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45554</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>45613.46733796296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>45598</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>45408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45169.35862268518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45560.40017361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45553.41510416667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44873</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45200</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45769</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>45089.5619212963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45469.59916666667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45737.55372685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45588</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45632</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45063.55581018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45607.46585648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45049</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44523</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45405</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45233</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44816</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45121.37228009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45028.39668981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45089.46127314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45567</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45618</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44727.31997685185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>45607.46910879629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45748.66413194445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45049.32165509259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45169.34836805556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44480</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45169.34711805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45169.35931712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45777</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>45191</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45196</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45390.4814699074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45789.43600694444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45740</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45792.36696759259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>45792.35083333333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45576.39340277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45274.67429398148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>44343</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45845.58730324074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>45551.31601851852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>45737</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45128</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>45744.34909722222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45644</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45560</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45762.70241898148</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>45622.69902777778</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44600</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44816</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44844.44208333334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>44852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44368</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44838.80408564815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>44257</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>44620.57958333333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44846.32945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3326,7 +3326,7 @@
         <v>44342</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         <v>44849</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44480</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>44449</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44659.66278935185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44846.32850694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44578</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44523</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44480</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>45196</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>45699.42703703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>45631</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>45607.4571875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44859.69474537037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44687.55239583334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>44552.67962962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>45210</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45091</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45583</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>45737.55307870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>45155.67111111111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>45420.56232638889</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>45363</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>45226</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>45154</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45705.37321759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45583.3955324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45200.55300925926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         <v>45567</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         <v>44356</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         <v>45551</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         <v>45740.45893518518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>45740.50429398148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
         <v>44264</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>45730.68177083333</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45576</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5862,7 +5862,7 @@
         <v>45799</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         <v>45825.43447916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45316</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>45827.36601851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>45827.34989583334</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
         <v>45827.34599537037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>45827.36146990741</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>45827.35523148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>45827.37133101852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>45274.68616898148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45832.54032407407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>45740.50280092593</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>45179</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>45586.42438657407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>44550</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>44691</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>45583.39818287037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>45839</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>45169.34457175926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>45169</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>45001.40960648148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>45908.36978009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>44628.72158564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>45155.35126157408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45729.3569212963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45918</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45405</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>45769.39085648148</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44860</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7600,7 +7600,7 @@
         <v>45846</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         <v>45091.36854166666</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>45931.36364583333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>45232</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>45881.66729166666</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>45881.38631944444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>45817.47966435185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>45882.33378472222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>45882.33851851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>45793</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>45679</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44938.65002314815</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>45882.34303240741</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>45937.59658564815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>45937.58998842593</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>45631</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44992</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45205.78081018518</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>45093</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>45191</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8770,7 +8770,7 @@
         <v>45952.37326388889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>45957</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         <v>44349</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45597</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>45598</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45537.30190972222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45737</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9179,7 +9179,7 @@
         <v>45103.56412037037</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>45966.40912037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>45973.57314814815</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>45974</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>45607</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>45607.46363425926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45978.31872685185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>45142</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>45764.52758101852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>45989</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>45964.53953703704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>45950.6121875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44852</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>45964.48070601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>45964.50170138889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>45320</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>45454</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>45454</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>45994.78494212963</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45994.81884259259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10406,7 +10406,7 @@
         <v>44473</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10463,7 +10463,7 @@
         <v>45994.93306712963</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10525,7 +10525,7 @@
         <v>45752.38246527778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         <v>45554.60052083333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45769.65043981482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>45408</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>46045</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>46006.4887962963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>45056</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>45155.66938657407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>46008.97306712963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>46008.97842592592</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>46008.98494212963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45056</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45639</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45474.65596064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>45588</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44973</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44328</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>46014</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>46014</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>45034</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>46059.36799768519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         <v>46018</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11809,7 +11809,7 @@
         <v>46063.4653587963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11871,7 +11871,7 @@
         <v>46020</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11928,7 +11928,7 @@
         <v>45985.63418981482</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11985,7 +11985,7 @@
         <v>46019</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12042,7 +12042,7 @@
         <v>46019</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
         <v>45155</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12161,7 +12161,7 @@
         <v>45474.67520833333</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>45554</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         <v>45613.46733796296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12332,7 +12332,7 @@
         <v>45598</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>45408</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45169.35862268518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45560.40017361111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>45553.41510416667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>45553</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44873</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>45200</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12823,7 +12823,7 @@
         <v>45714</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12885,7 +12885,7 @@
         <v>45769</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>45089.5619212963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>45469.59916666667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>45737.55372685185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         <v>45588</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
         <v>45632</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45063.55581018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45607.46585648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>45049</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44523</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45405</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>45233</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44816</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45121.37228009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45028.39668981481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45089.46127314815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45567</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45618</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44727.31997685185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>45607.46910879629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14055,7 +14055,7 @@
         <v>45748.66413194445</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44992</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45049.32165509259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45169.34836805556</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44480</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45169.34711805556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         <v>45169.35931712963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45440</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45777</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14593,7 +14593,7 @@
         <v>45191</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>45196</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>45390.4814699074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45789.43600694444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45740</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45792.36696759259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>45792.35083333333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>45576.39340277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15079,7 +15079,7 @@
         <v>45274.67429398148</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 62471-2023</t>
+          <t>A 25843-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45268</v>
+        <v>44343</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,145 +806,145 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Bårdlav
+Grönpyrola</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 62471-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Orange taggsvamp
 Kryddspindling
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 25843-2021</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>44343</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Bårdlav
-Grönpyrola</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34170-2025</t>
+          <t>A 39250-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45845.58730324074</v>
+        <v>45551.31601851852</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -958,20 +958,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>11.3</v>
+        <v>8.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -996,308 +996,308 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp
+Tallticka</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 33377-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45128</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Dofttaggsvamp
+Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 34170-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45845.58730324074</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 39250-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45551.31601851852</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 13834-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Tallticka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 13834-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45737</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 13834-2025 artfynd.xlsx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 13834-2025 karta.png", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 13834-2025 FSC-klagomål.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 13834-2025 FSC-klagomål mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 13834-2025 tillsynsbegäran.docx", "A 13834-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 13834-2025 tillsynsbegäran mail.docx", "A 13834-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 33377-2023</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45128</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Gul taggsvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 56825-2021</t>
+          <t>A 41468-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44480</v>
+        <v>45560</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,8 +1495,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>14.2</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1508,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1520,488 +1525,483 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="U12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 18464-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45762.70241898148</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 55711-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45622.69902777778</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 56825-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44480</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H13" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 41468-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45560</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 18464-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45762.70241898148</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 55711-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45622.69902777778</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2243,14 +2243,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 49143-2022</t>
+          <t>A 44016-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44860.75229166666</v>
+        <v>44838.80505787037</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 49163-2022</t>
+          <t>A 45934-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44860.90282407407</v>
+        <v>44441</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,13 +2324,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2367,14 +2362,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 44016-2022</t>
+          <t>A 49143-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44838.80505787037</v>
+        <v>44860.75229166666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2392,7 +2387,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2436,7 +2431,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2486,14 +2481,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45740-2022</t>
+          <t>A 49163-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44846.33037037037</v>
+        <v>44860.90282407407</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2511,7 +2506,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2548,14 +2543,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 48544-2021</t>
+          <t>A 45740-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44452</v>
+        <v>44846.33037037037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2567,8 +2562,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2605,14 +2605,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 45934-2021</t>
+          <t>A 48544-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44441</v>
+        <v>44452</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2662,14 +2662,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6353-2022</t>
+          <t>A 38903-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44600</v>
+        <v>44816</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2681,8 +2681,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2719,14 +2724,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38903-2022</t>
+          <t>A 45213-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44816</v>
+        <v>44844.44208333334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,13 +2743,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 45213-2022</t>
+          <t>A 47607-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44844.44208333334</v>
+        <v>44852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>44360</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2900,14 +2900,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47607-2022</t>
+          <t>A 31257-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44852</v>
+        <v>44368</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2919,8 +2919,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2964,7 +2969,7 @@
         <v>44279</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3019,14 +3024,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 31257-2021</t>
+          <t>A 44015-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44368</v>
+        <v>44838.80408564815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3044,7 +3049,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3081,14 +3086,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 44015-2022</t>
+          <t>A 9875-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44838.80408564815</v>
+        <v>44620.57958333333</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3100,13 +3105,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3143,14 +3143,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 10339-2021</t>
+          <t>A 45738-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44257</v>
+        <v>44846.32945601852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3162,8 +3162,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>13.8</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3200,14 +3205,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9875-2022</t>
+          <t>A 6353-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44620.57958333333</v>
+        <v>44600</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3220,7 +3225,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3257,14 +3262,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45738-2022</t>
+          <t>A 25364-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44846.32945601852</v>
+        <v>44342</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3276,13 +3281,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3319,14 +3319,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 25364-2021</t>
+          <t>A 10339-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>13.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3376,14 +3376,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46641-2022</t>
+          <t>A 56929-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44849</v>
+        <v>44480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3395,13 +3395,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3438,14 +3433,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 56929-2021</t>
+          <t>A 48143-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44480</v>
+        <v>44449</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3457,8 +3452,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3495,14 +3495,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 48143-2021</t>
+          <t>A 46641-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44449</v>
+        <v>44849</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3516,11 +3516,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>44386.4384375</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>44852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>44831.58111111111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44831.58203703703</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3800,14 +3800,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15427-2022</t>
+          <t>A 45737-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44659.66278935185</v>
+        <v>44846.32850694445</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3819,8 +3819,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3857,14 +3862,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45737-2022</t>
+          <t>A 15427-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44846.32850694445</v>
+        <v>44659.66278935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3876,13 +3881,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>44349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44816.60269675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44635</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4095,14 +4095,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2312-2022</t>
+          <t>A 67361-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44578</v>
+        <v>44523</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4152,14 +4152,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 67361-2021</t>
+          <t>A 2312-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44523</v>
+        <v>44578</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4209,14 +4209,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56936-2021</t>
+          <t>A 40232-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44480</v>
+        <v>45554</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4266,14 +4266,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46045-2023</t>
+          <t>A 11448-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45196</v>
+        <v>44264</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4287,11 +4287,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4328,14 +4328,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6388-2025</t>
+          <t>A 67356-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45699.42703703704</v>
+        <v>44523</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4385,14 +4385,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57990-2024</t>
+          <t>A 15890-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45631</v>
+        <v>45405</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4442,14 +4442,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 51778-2024</t>
+          <t>A 27589-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45607.4571875</v>
+        <v>45474.67520833333</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4499,14 +4499,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48859-2022</t>
+          <t>A 16629-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44859.69474537037</v>
+        <v>45408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4518,8 +4518,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4556,14 +4561,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18673-2022</t>
+          <t>A 50124-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44687.55239583334</v>
+        <v>44860</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4576,7 +4581,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4613,14 +4618,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 73797-2021</t>
+          <t>A 28458-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44552.67962962963</v>
+        <v>44356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4633,7 +4638,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4670,14 +4675,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49101-2023</t>
+          <t>A 1814-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45210</v>
+        <v>44938.65002314815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4689,13 +4694,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4732,14 +4732,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26069-2023</t>
+          <t>A 26519-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45091</v>
+        <v>45469.59916666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46683-2024</t>
+          <t>A 14158-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45583</v>
+        <v>45740.50280092593</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4808,13 +4808,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4851,14 +4846,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13837-2025</t>
+          <t>A 40228-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45737.55307870371</v>
+        <v>45554.60052083333</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4870,13 +4865,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4913,14 +4903,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 37200-2023</t>
+          <t>A 18128-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45155.67111111111</v>
+        <v>45420.56232638889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4932,13 +4922,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4975,14 +4960,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18128-2024</t>
+          <t>A 34967-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45420.56232638889</v>
+        <v>45142</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4994,8 +4979,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5032,14 +5022,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9907-2024</t>
+          <t>A 57993-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45363</v>
+        <v>45631</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,14 +5079,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53030-2023</t>
+          <t>A 16042-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45226</v>
+        <v>45405</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5108,13 +5098,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>7.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5151,14 +5136,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36905-2023</t>
+          <t>A 37200-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45154</v>
+        <v>45155.67111111111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5170,8 +5155,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.2</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5208,14 +5198,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7417-2025</t>
+          <t>A 73083-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45705.37321759259</v>
+        <v>44550</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5227,8 +5217,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>10.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5265,14 +5260,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 46686-2024</t>
+          <t>A 46864-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45583.3955324074</v>
+        <v>45200.55300925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5290,7 +5285,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5327,14 +5322,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46864-2023</t>
+          <t>A 54864-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45200.55300925926</v>
+        <v>44473</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5346,13 +5341,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5389,14 +5379,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 43103-2024</t>
+          <t>A 40154-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45567</v>
+        <v>45169.35931712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5408,8 +5398,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5446,14 +5441,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28458-2021</t>
+          <t>A 7744-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44356</v>
+        <v>44973</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5465,8 +5460,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5503,14 +5503,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39255-2024</t>
+          <t>A 16565-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45551</v>
+        <v>45752.38246527778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5524,11 +5524,11 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5565,14 +5565,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14112-2025</t>
+          <t>A 18960-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45740.45893518518</v>
+        <v>45764.52758101852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5584,8 +5584,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5622,14 +5627,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14159-2025</t>
+          <t>A 46683-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45740.50429398148</v>
+        <v>45583</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5641,8 +5646,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5679,14 +5689,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11448-2021</t>
+          <t>A 7417-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44264</v>
+        <v>45705.37321759259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5698,13 +5708,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5741,14 +5746,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12526-2025</t>
+          <t>A 13838-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45730.68177083333</v>
+        <v>45737.55372685185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5760,8 +5765,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5798,14 +5808,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45430-2024</t>
+          <t>A 27580-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45576</v>
+        <v>45474.65596064815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5818,7 +5828,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5855,14 +5865,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24865-2025</t>
+          <t>A 26899-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45799</v>
+        <v>44349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5874,13 +5884,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5917,14 +5922,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29620-2025</t>
+          <t>A 73797-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45825.43447916667</v>
+        <v>44552.67962962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5937,7 +5942,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5974,14 +5979,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3131-2024</t>
+          <t>A 26072-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45316</v>
+        <v>45091.36854166666</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5994,7 +5999,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6031,14 +6036,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 30211-2025</t>
+          <t>A 14159-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45827.36601851852</v>
+        <v>45740.50429398148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6050,13 +6055,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6093,14 +6093,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30190-2025</t>
+          <t>A 56936-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45827.34989583334</v>
+        <v>44480</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6112,13 +6112,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6155,14 +6150,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 30180-2025</t>
+          <t>A 9201-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45827.34599537037</v>
+        <v>45714</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6175,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>23.8</v>
+        <v>15.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6217,14 +6212,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30204-2025</t>
+          <t>A 50005-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45827.36146990741</v>
+        <v>45598</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6238,11 +6233,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.300000000000001</v>
+        <v>4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6279,14 +6274,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30197-2025</t>
+          <t>A 37198-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45827.35523148148</v>
+        <v>45155.66938657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6300,11 +6295,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6341,14 +6336,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30219-2025</t>
+          <t>A 51798-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45827.37133101852</v>
+        <v>45607.46910879629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6360,13 +6355,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>9.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6403,14 +6393,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 63505-2023</t>
+          <t>A 53224-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45274.68616898148</v>
+        <v>45613.46733796296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6423,7 +6413,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6460,14 +6450,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31033-2025</t>
+          <t>A 13837-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45832.54032407407</v>
+        <v>45737.55307870371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6485,7 +6475,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6522,14 +6512,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14158-2025</t>
+          <t>A 51793-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45740.50280092593</v>
+        <v>45607.46585648148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6542,7 +6532,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>0.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6579,14 +6569,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42198-2023</t>
+          <t>A 9907-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45179</v>
+        <v>45363</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6598,13 +6588,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6641,14 +6626,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47029-2024</t>
+          <t>A 28589-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45586.42438657407</v>
+        <v>45103.56412037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6661,7 +6646,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6698,14 +6683,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 73083-2021</t>
+          <t>A 47846-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44550</v>
+        <v>45588</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6717,13 +6702,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>10.1</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6760,14 +6740,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 19075-2022</t>
+          <t>A 15810-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44691</v>
+        <v>45748.66413194445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6781,11 +6761,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6822,14 +6802,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46688-2024</t>
+          <t>A 36443-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45583.39818287037</v>
+        <v>45537.30190972222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6841,13 +6821,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6884,14 +6859,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32767-2025</t>
+          <t>A 16225-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45839</v>
+        <v>45028.39668981481</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6904,7 +6879,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6941,14 +6916,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 40138-2023</t>
+          <t>A 39835-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45169.34457175926</v>
+        <v>45553.41510416667</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6962,11 +6937,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>9.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7003,14 +6978,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40140-2023</t>
+          <t>A 39837-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45169</v>
+        <v>45553</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7024,11 +6999,11 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7065,14 +7040,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12796-2023</t>
+          <t>A 40138-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45001.40960648148</v>
+        <v>45169.34457175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7084,8 +7059,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>22.4</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7122,14 +7102,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42704-2025</t>
+          <t>A 43103-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45908.36978009259</v>
+        <v>45567</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7141,13 +7121,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7184,14 +7159,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11099-2022</t>
+          <t>A 47610-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44628.72158564815</v>
+        <v>44852</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7204,7 +7179,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7241,14 +7216,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37017-2023</t>
+          <t>A 21543-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45155.35126157408</v>
+        <v>45063.55581018519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7260,13 +7235,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>15.9</v>
+        <v>2.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7303,14 +7273,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 12110-2025</t>
+          <t>A 27635-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45729.3569212963</v>
+        <v>45093</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7323,7 +7293,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7360,14 +7330,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44884-2025</t>
+          <t>A 45066-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45918</v>
+        <v>45191</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7379,8 +7349,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7417,14 +7392,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 15890-2024</t>
+          <t>A 3587-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45405</v>
+        <v>45320</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7437,7 +7412,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.3</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7474,14 +7449,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19173-2025</t>
+          <t>A 25540-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45769.39085648148</v>
+        <v>45089.5619212963</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7491,11 +7466,6 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -7536,14 +7506,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50124-2022</t>
+          <t>A 6388-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44860</v>
+        <v>45699.42703703704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7556,7 +7526,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7593,14 +7563,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34387-2025</t>
+          <t>A 40153-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45846</v>
+        <v>45169.35862268518</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7612,8 +7582,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7650,14 +7625,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26072-2023</t>
+          <t>A 36905-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45091.36854166666</v>
+        <v>45154</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7670,7 +7645,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7707,14 +7682,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47546-2025</t>
+          <t>A 48396-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45931.36364583333</v>
+        <v>45205.78081018518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7726,8 +7701,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7764,14 +7744,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54306-2023</t>
+          <t>A 37011-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45232</v>
+        <v>45155</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7785,11 +7765,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.9</v>
+        <v>7.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7826,14 +7806,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 37969-2025</t>
+          <t>A 11664-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45881.66729166666</v>
+        <v>44992</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7846,7 +7826,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7883,14 +7863,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37817-2025</t>
+          <t>A 3354-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45881.38631944444</v>
+        <v>45679</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7903,7 +7883,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7940,14 +7920,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27913-2025</t>
+          <t>A 52063-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45817.47966435185</v>
+        <v>44873</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7960,7 +7940,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7997,14 +7977,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38017-2025</t>
+          <t>A 54721-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45882.33378472222</v>
+        <v>45618</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8016,13 +7996,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>15.5</v>
+        <v>5.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8059,14 +8034,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38018-2025</t>
+          <t>A 32524-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45882.33851851852</v>
+        <v>45121.37228009259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8078,13 +8053,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>15</v>
+        <v>1.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8121,14 +8091,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 23860-2025</t>
+          <t>A 40144-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45793</v>
+        <v>45169.34836805556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,8 +8110,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8178,14 +8153,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3354-2025</t>
+          <t>A 11099-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45679</v>
+        <v>44628.72158564815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8198,7 +8173,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8235,14 +8210,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 1814-2023</t>
+          <t>A 40140-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44938.65002314815</v>
+        <v>45169</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8254,8 +8229,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>5.9</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8292,14 +8272,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 38019-2025</t>
+          <t>A 26069-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45882.34303240741</v>
+        <v>45091</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8311,13 +8291,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8354,14 +8329,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 49001-2025</t>
+          <t>A 18673-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45937.59658564815</v>
+        <v>44687.55239583334</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8374,7 +8349,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8411,14 +8386,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48997-2025</t>
+          <t>A 53030-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45937.58998842593</v>
+        <v>45226</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8430,8 +8405,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8468,14 +8448,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 57993-2024</t>
+          <t>A 21232-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45631</v>
+        <v>45440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8488,7 +8468,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8525,14 +8505,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11664-2023</t>
+          <t>A 12526-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44992</v>
+        <v>45730.68177083333</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8545,7 +8525,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8582,14 +8562,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48396-2023</t>
+          <t>A 8746-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45205.78081018518</v>
+        <v>44973</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8601,13 +8581,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8644,14 +8619,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 27635-2023</t>
+          <t>A 19254-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45093</v>
+        <v>45049</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8664,7 +8639,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8701,14 +8676,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45066-2023</t>
+          <t>A 46045-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8726,7 +8701,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8763,14 +8738,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 51864-2025</t>
+          <t>A 24865-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45952.37326388889</v>
+        <v>45799</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8782,8 +8757,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8820,14 +8800,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53011-2025</t>
+          <t>A 56940-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45957</v>
+        <v>44480</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8840,7 +8820,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8877,14 +8857,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26899-2021</t>
+          <t>A 54306-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44349</v>
+        <v>45232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8896,8 +8876,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>4.7</v>
+        <v>2.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8934,14 +8919,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49763-2024</t>
+          <t>A 57990-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45597</v>
+        <v>45631</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8954,7 +8939,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8991,14 +8976,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50005-2024</t>
+          <t>A 59705-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45598</v>
+        <v>45639</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9010,13 +8995,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9053,14 +9033,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 36443-2024</t>
+          <t>A 25477-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45537.30190972222</v>
+        <v>45089.46127314815</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9073,7 +9053,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9110,14 +9090,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 13835-2025</t>
+          <t>A 63505-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45737</v>
+        <v>45274.68616898148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9129,13 +9109,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9172,14 +9147,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 28589-2023</t>
+          <t>A 16503-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45103.56412037037</v>
+        <v>45408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9191,8 +9166,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9229,14 +9209,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54670-2025</t>
+          <t>A 14112-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45966.40912037037</v>
+        <v>45740.45893518518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9249,7 +9229,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9286,14 +9266,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55999-2025</t>
+          <t>A 19164-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45973.57314814815</v>
+        <v>45769</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9305,8 +9285,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9343,14 +9328,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 56400-2025</t>
+          <t>A 19173-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45974</v>
+        <v>45769.39085648148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9362,8 +9347,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9400,14 +9390,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 51790-2024</t>
+          <t>A 13835-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45607</v>
+        <v>45737</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9419,8 +9409,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9457,14 +9452,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 51791-2024</t>
+          <t>A 20378-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45607.46363425926</v>
+        <v>45056</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9476,13 +9471,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9519,14 +9509,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56726-2025</t>
+          <t>A 12796-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45978.31872685185</v>
+        <v>45001.40960648148</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9538,13 +9528,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>22.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9581,14 +9566,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 34967-2023</t>
+          <t>A 37017-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45142</v>
+        <v>45155.35126157408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9602,11 +9587,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>15.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9643,14 +9628,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 18960-2025</t>
+          <t>A 45430-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45764.52758101852</v>
+        <v>45576</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9662,13 +9647,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9705,14 +9685,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 59527-2025</t>
+          <t>A 19253-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45989</v>
+        <v>45049.32165509259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9725,7 +9705,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9762,14 +9742,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54174-2025</t>
+          <t>A 42704-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45964.53953703704</v>
+        <v>45908.36978009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9781,8 +9761,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9819,14 +9804,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 51467-2025</t>
+          <t>A 51778-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45950.6121875</v>
+        <v>45607.4571875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9839,7 +9824,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6</v>
+        <v>0.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9876,14 +9861,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 47610-2022</t>
+          <t>A 48859-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44852</v>
+        <v>44859.69474537037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9896,7 +9881,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9933,14 +9918,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8746-2023</t>
+          <t>A 46865-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44973</v>
+        <v>45200</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9952,8 +9937,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9990,14 +9980,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 54143-2025</t>
+          <t>A 38905-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45964.48070601852</v>
+        <v>44816</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10009,8 +9999,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.7</v>
+        <v>20.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10047,14 +10042,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54157-2025</t>
+          <t>A 49101-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45964.50170138889</v>
+        <v>45210</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10066,8 +10061,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10104,14 +10104,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 3587-2024</t>
+          <t>A 39255-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45320</v>
+        <v>45551</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10123,8 +10123,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10161,14 +10166,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 23702-2024</t>
+          <t>A 41448-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45454</v>
+        <v>45560.40017361111</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10180,8 +10185,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10218,14 +10228,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 23705-2024</t>
+          <t>A 44884-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45454</v>
+        <v>45918</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10238,7 +10248,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10275,14 +10285,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60335-2025</t>
+          <t>A 50004-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45994.78494212963</v>
+        <v>45598</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10296,11 +10306,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10337,14 +10347,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60339-2025</t>
+          <t>A 46686-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45994.81884259259</v>
+        <v>45583.3955324074</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10358,11 +10368,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10399,14 +10409,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 54864-2021</t>
+          <t>A 47546-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44473</v>
+        <v>45931.36364583333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10419,7 +10429,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10456,14 +10466,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60344-2025</t>
+          <t>A 20381-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45994.93306712963</v>
+        <v>45056</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10475,13 +10485,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10518,14 +10523,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 16565-2025</t>
+          <t>A 54573-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45752.38246527778</v>
+        <v>45233</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10543,7 +10548,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10580,14 +10585,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 40228-2024</t>
+          <t>A 49001-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45554.60052083333</v>
+        <v>45937.59658564815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10600,7 +10605,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10637,14 +10642,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 19377-2025</t>
+          <t>A 23702-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45769.65043981482</v>
+        <v>45454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10657,7 +10662,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10694,14 +10699,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 16629-2024</t>
+          <t>A 23705-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45408</v>
+        <v>45454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10713,13 +10718,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>8.800000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10756,14 +10756,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4887-2026</t>
+          <t>A 48997-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46045</v>
+        <v>45937.58998842593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10813,14 +10813,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62155-2025</t>
+          <t>A 46688-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46006.4887962963</v>
+        <v>45583.39818287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10832,8 +10832,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10870,14 +10875,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 20381-2023</t>
+          <t>A 24540-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45056</v>
+        <v>44727.31997685185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10889,8 +10894,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>6.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10927,14 +10937,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 37198-2023</t>
+          <t>A 47753-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45155.66938657407</v>
+        <v>45588</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10946,13 +10956,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10989,14 +10994,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62881-2025</t>
+          <t>A 42198-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46008.97306712963</v>
+        <v>45179</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11008,8 +11013,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11046,14 +11056,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 62882-2025</t>
+          <t>A 51864-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46008.97842592592</v>
+        <v>45952.37326388889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11066,7 +11076,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11103,14 +11113,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 62883-2025</t>
+          <t>A 51790-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46008.98494212963</v>
+        <v>45607</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11123,7 +11133,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>6.3</v>
+        <v>0.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11160,14 +11170,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20378-2023</t>
+          <t>A 51791-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45056</v>
+        <v>45607.46363425926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11179,8 +11189,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11217,14 +11232,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59705-2024</t>
+          <t>A 19377-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45639</v>
+        <v>45769.65043981482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11237,7 +11252,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11274,14 +11289,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 27580-2024</t>
+          <t>A 22801-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45474.65596064815</v>
+        <v>44328</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11293,8 +11308,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11331,14 +11351,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 47753-2024</t>
+          <t>A 53011-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45588</v>
+        <v>45957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11351,7 +11371,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11388,14 +11408,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7744-2023</t>
+          <t>A 40141-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44973</v>
+        <v>45169.34711805556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11409,11 +11429,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11450,14 +11470,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 22801-2021</t>
+          <t>A 3131-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44328</v>
+        <v>45316</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11469,13 +11489,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11512,14 +11527,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 62-2026</t>
+          <t>A 43073-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46014</v>
+        <v>45567</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11569,14 +11584,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56-2026</t>
+          <t>A 58616-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46014</v>
+        <v>45632</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11588,8 +11603,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>22.8</v>
+        <v>4.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11626,14 +11646,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 17075-2023</t>
+          <t>A 54670-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45034</v>
+        <v>45966.40912037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11645,13 +11665,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>8.1</v>
+        <v>3.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11688,14 +11703,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 7390-2026</t>
+          <t>A 19075-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46059.36799768519</v>
+        <v>44691</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11707,8 +11722,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G182" t="n">
-        <v>33.1</v>
+        <v>4.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11745,14 +11765,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 63759-2025</t>
+          <t>A 12110-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46018</v>
+        <v>45729.3569212963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11765,7 +11785,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11802,14 +11822,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 7969-2026</t>
+          <t>A 47029-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46063.4653587963</v>
+        <v>45586.42438657407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11821,13 +11841,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11864,14 +11879,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 63907-2025</t>
+          <t>A 56400-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>46020</v>
+        <v>45974</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11884,7 +11899,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11921,14 +11936,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 58457-2025</t>
+          <t>A 55999-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45985.63418981482</v>
+        <v>45973.57314814815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11941,7 +11956,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11978,14 +11993,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 63778-2025</t>
+          <t>A 49763-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46019</v>
+        <v>45597</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11998,7 +12013,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12035,14 +12050,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 63777-2025</t>
+          <t>A 17075-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46019</v>
+        <v>45034</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12054,8 +12069,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>3.4</v>
+        <v>8.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12092,14 +12112,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 37011-2023</t>
+          <t>A 56726-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45155</v>
+        <v>45978.31872685185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12117,7 +12137,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12154,14 +12174,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 27589-2024</t>
+          <t>A 11099-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45474.67520833333</v>
+        <v>44992</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12174,7 +12194,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12211,14 +12231,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 40232-2024</t>
+          <t>A 20978-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45554</v>
+        <v>45777</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12228,6 +12248,11 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -12268,14 +12293,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53224-2024</t>
+          <t>A 45065-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45613.46733796296</v>
+        <v>45191</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12287,8 +12312,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12325,14 +12355,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 50004-2024</t>
+          <t>A 51467-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45598</v>
+        <v>45950.6121875</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12344,13 +12374,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12387,14 +12412,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 16503-2024</t>
+          <t>A 46041-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45408</v>
+        <v>45196</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,11 +12433,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12449,14 +12474,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 40153-2023</t>
+          <t>A 59527-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45169.35862268518</v>
+        <v>45989</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12468,13 +12493,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12511,14 +12531,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 41448-2024</t>
+          <t>A 54174-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45560.40017361111</v>
+        <v>45964.53953703704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12530,13 +12550,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12573,14 +12588,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 39835-2024</t>
+          <t>A 54143-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45553.41510416667</v>
+        <v>45964.48070601852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12592,13 +12607,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>9.6</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12635,14 +12645,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 39837-2024</t>
+          <t>A 54157-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45553</v>
+        <v>45964.50170138889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12654,13 +12664,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12697,14 +12702,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 52063-2022</t>
+          <t>A 13654-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44873</v>
+        <v>45390.4814699074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12717,7 +12722,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12754,14 +12759,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 46865-2023</t>
+          <t>A 22627-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45200</v>
+        <v>45789.43600694444</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12775,11 +12780,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12816,14 +12821,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 9201-2025</t>
+          <t>A 60344-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45714</v>
+        <v>45994.93306712963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12837,11 +12842,11 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>15.4</v>
+        <v>3.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12878,14 +12883,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19164-2025</t>
+          <t>A 60335-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45769</v>
+        <v>45994.78494212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12899,11 +12904,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12940,14 +12945,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 25540-2023</t>
+          <t>A 60339-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45089.5619212963</v>
+        <v>45994.81884259259</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12959,8 +12964,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12997,14 +13007,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 26519-2024</t>
+          <t>A 14181-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45469.59916666667</v>
+        <v>45740</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13017,7 +13027,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13054,14 +13064,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13838-2025</t>
+          <t>A 23418-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45737.55372685185</v>
+        <v>45792.35083333333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13075,11 +13085,11 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13116,14 +13126,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 47846-2024</t>
+          <t>A 23433-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45588</v>
+        <v>45792.36696759259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13135,8 +13145,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13173,14 +13188,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 58616-2024</t>
+          <t>A 63495-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45632</v>
+        <v>45274.67429398148</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13192,13 +13207,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13235,14 +13245,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21543-2023</t>
+          <t>A 45290-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45063.55581018519</v>
+        <v>45576.39340277778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13254,8 +13264,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>2.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13292,14 +13307,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 51793-2024</t>
+          <t>A 4887-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45607.46585648148</v>
+        <v>46045</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13312,7 +13327,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13349,14 +13364,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 19254-2023</t>
+          <t>A 62155-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45049</v>
+        <v>46006.4887962963</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13369,7 +13384,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13406,14 +13421,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 67356-2021</t>
+          <t>A 62883-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44523</v>
+        <v>46008.98494212963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13426,7 +13441,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13463,14 +13478,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 16042-2024</t>
+          <t>A 62882-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45405</v>
+        <v>46008.97842592592</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13483,7 +13498,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>7.7</v>
+        <v>0.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13520,14 +13535,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 54573-2023</t>
+          <t>A 62881-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45233</v>
+        <v>46008.97306712963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13539,13 +13554,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13582,14 +13592,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 38905-2022</t>
+          <t>A 56-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44816</v>
+        <v>46014</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13601,13 +13611,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>20.5</v>
+        <v>22.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13644,14 +13649,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 32524-2023</t>
+          <t>A 62-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45121.37228009259</v>
+        <v>46014</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13664,7 +13669,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13701,14 +13706,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 16225-2023</t>
+          <t>A 7390-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45028.39668981481</v>
+        <v>46059.36799768519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13721,7 +13726,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>33.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13758,14 +13763,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 25477-2023</t>
+          <t>A 63907-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45089.46127314815</v>
+        <v>46020</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13778,7 +13783,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13815,14 +13820,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 43073-2024</t>
+          <t>A 63759-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45567</v>
+        <v>46018</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13835,7 +13840,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13872,14 +13877,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54721-2024</t>
+          <t>A 58457-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45618</v>
+        <v>45985.63418981482</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13892,7 +13897,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13929,14 +13934,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 24540-2022</t>
+          <t>A 63778-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44727.31997685185</v>
+        <v>46019</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13948,13 +13953,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13991,14 +13991,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 51798-2024</t>
+          <t>A 7969-2026</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45607.46910879629</v>
+        <v>46063.4653587963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14010,8 +14010,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14048,14 +14053,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 15810-2025</t>
+          <t>A 29620-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45748.66413194445</v>
+        <v>45825.43447916667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14067,13 +14072,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14110,14 +14110,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 11099-2023</t>
+          <t>A 63777-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44992</v>
+        <v>46019</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14167,14 +14167,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 19253-2023</t>
+          <t>A 30204-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45049.32165509259</v>
+        <v>45827.36146990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14186,8 +14186,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14224,14 +14229,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 40144-2023</t>
+          <t>A 30197-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45169.34836805556</v>
+        <v>45827.35523148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14245,11 +14250,11 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14286,14 +14291,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56940-2021</t>
+          <t>A 30180-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44480</v>
+        <v>45827.34599537037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14305,8 +14310,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>23.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14343,14 +14353,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 40141-2023</t>
+          <t>A 30219-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45169.34711805556</v>
+        <v>45827.37133101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14364,11 +14374,11 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14405,14 +14415,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 40154-2023</t>
+          <t>A 30211-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45169.35931712963</v>
+        <v>45827.36601851852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14426,11 +14436,11 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14467,14 +14477,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 21232-2024</t>
+          <t>A 30190-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45440</v>
+        <v>45827.34989583334</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14486,8 +14496,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14524,14 +14539,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 20978-2025</t>
+          <t>A 31033-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45777</v>
+        <v>45832.54032407407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14549,7 +14564,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14586,14 +14601,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 45065-2023</t>
+          <t>A 32767-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45191</v>
+        <v>45839</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14605,13 +14620,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14648,14 +14658,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 46041-2023</t>
+          <t>A 34387-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45196</v>
+        <v>45846</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14667,13 +14677,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14710,14 +14715,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 13654-2024</t>
+          <t>A 38018-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45390.4814699074</v>
+        <v>45882.33851851852</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14729,8 +14734,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14767,14 +14777,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 22627-2025</t>
+          <t>A 38019-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45789.43600694444</v>
+        <v>45882.34303240741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14788,11 +14798,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14829,14 +14839,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 14181-2025</t>
+          <t>A 37969-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45740</v>
+        <v>45881.66729166666</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14849,7 +14859,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14886,14 +14896,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 23433-2025</t>
+          <t>A 27913-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45792.36696759259</v>
+        <v>45817.47966435185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14905,13 +14915,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14948,14 +14953,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23418-2025</t>
+          <t>A 38017-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45792.35083333333</v>
+        <v>45882.33378472222</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14973,7 +14978,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.2</v>
+        <v>15.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15010,14 +15015,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 45290-2024</t>
+          <t>A 23860-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45576.39340277778</v>
+        <v>45793</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15029,13 +15034,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>9.300000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15072,14 +15072,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 63495-2023</t>
+          <t>A 37817-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45274.67429398148</v>
+        <v>45881.38631944444</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>

--- a/Översikt NORBERG.xlsx
+++ b/Översikt NORBERG.xlsx
@@ -575,7 +575,7 @@
         <v>45566</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45551</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,14 +759,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 25843-2021</t>
+          <t>A 62471-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44343</v>
+        <v>45268</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -806,145 +806,145 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp
+Kryddspindling
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 25843-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44343</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Bårdlav
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 25843-2021 artfynd.xlsx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 25843-2021 karta.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 25843-2021 karta knärot.png", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 25843-2021 FSC-klagomål.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 25843-2021 FSC-klagomål mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 25843-2021 tillsynsbegäran.docx", "A 25843-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 25843-2021 tillsynsbegäran mail.docx", "A 25843-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 62471-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45268</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Orange taggsvamp
-Kryddspindling
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 62471-2023 artfynd.xlsx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 62471-2023 karta.png", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 62471-2023 FSC-klagomål.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 62471-2023 FSC-klagomål mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 62471-2023 tillsynsbegäran.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 62471-2023 tillsynsbegäran mail.docx", "A 62471-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 39250-2024</t>
+          <t>A 33377-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45551.31601851852</v>
+        <v>45128</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -958,11 +958,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.9</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,217 +996,217 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Dofttaggsvamp
+Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 34170-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45845.58730324074</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Svart trolldruva
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 39250-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45551.31601851852</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp
 Tallticka</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 39250-2024 artfynd.xlsx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 39250-2024 karta.png", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 39250-2024 FSC-klagomål.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 39250-2024 FSC-klagomål mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 39250-2024 tillsynsbegäran.docx", "A 39250-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 39250-2024 tillsynsbegäran mail.docx", "A 39250-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 33377-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45128</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Dofttaggsvamp
-Gul taggsvamp</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 33377-2023 artfynd.xlsx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 33377-2023 karta.png", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 33377-2023 FSC-klagomål.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 33377-2023 FSC-klagomål mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 33377-2023 tillsynsbegäran.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 33377-2023 tillsynsbegäran mail.docx", "A 33377-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 34170-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45845.58730324074</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Svart trolldruva
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 34170-2025 artfynd.xlsx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 34170-2025 karta.png", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 34170-2025 FSC-klagomål.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 34170-2025 FSC-klagomål mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 34170-2025 tillsynsbegäran.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 34170-2025 tillsynsbegäran mail.docx", "A 34170-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         <v>45737</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>44620.57465277778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45773.34196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1476,14 +1476,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 41468-2024</t>
+          <t>A 56825-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45560</v>
+        <v>44480</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1495,13 +1495,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>14.2</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1513,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1525,483 +1520,488 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 15107-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45744.34909722222</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 61099-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45644</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 41468-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 41468-2024 artfynd.xlsx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 41468-2024 karta.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="U12">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/knärot/A 41468-2024 karta knärot.png", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 41468-2024 FSC-klagomål.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 41468-2024 FSC-klagomål mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 41468-2024 tillsynsbegäran.docx", "A 41468-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 41468-2024 tillsynsbegäran mail.docx", "A 41468-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 18464-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45762.70241898148</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G16" t="n">
         <v>1.1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 18464-2025 artfynd.xlsx", "A 18464-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 18464-2025 karta.png", "A 18464-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 18464-2025 FSC-klagomål.docx", "A 18464-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 18464-2025 FSC-klagomål mail.docx", "A 18464-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 18464-2025 tillsynsbegäran.docx", "A 18464-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 18464-2025 tillsynsbegäran mail.docx", "A 18464-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 55711-2024</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45622.69902777778</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NORBERG</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 55711-2024 artfynd.xlsx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 55711-2024 karta.png", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 55711-2024 FSC-klagomål.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 55711-2024 FSC-klagomål mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 55711-2024 tillsynsbegäran.docx", "A 55711-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 55711-2024 tillsynsbegäran mail.docx", "A 55711-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 15107-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45744.34909722222</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 15107-2025 artfynd.xlsx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 15107-2025 karta.png", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 15107-2025 FSC-klagomål.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 15107-2025 FSC-klagomål mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 15107-2025 tillsynsbegäran.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 15107-2025 tillsynsbegäran mail.docx", "A 15107-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 56825-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44480</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 56825-2021 artfynd.xlsx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 56825-2021 karta.png", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 56825-2021 FSC-klagomål.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 56825-2021 FSC-klagomål mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 56825-2021 tillsynsbegäran.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 56825-2021 tillsynsbegäran mail.docx", "A 56825-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 61099-2024</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45644</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NORBERG</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/artfynd/A 61099-2024 artfynd.xlsx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/kartor/A 61099-2024 karta.png", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomål/A 61099-2024 FSC-klagomål.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/klagomålsmail/A 61099-2024 FSC-klagomål mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsyn/A 61099-2024 tillsynsbegäran.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1962/tillsynsmail/A 61099-2024 tillsynsbegäran mail.docx", "A 61099-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>44348</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44308</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>44869.454375</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2243,14 +2243,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44016-2022</t>
+          <t>A 49143-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44838.80505787037</v>
+        <v>44860.75229166666</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2305,14 +2305,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 45934-2021</t>
+          <t>A 49163-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44441</v>
+        <v>44860.90282407407</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2324,8 +2324,13 @@
           <t>NORBERG</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,14 +2367,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 49143-2022</t>
+          <t>A 44016-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44860.75229166666</v>
+        <v>44838.80505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2387,7 +2392,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2431,7 +2436,7 @@
         <v>44873</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2481,14 +2486,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49163-2022</t>
+          <t>A 45740-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44860.90282407407</v>
+        <v>44846.33037037037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2506,7 +2511,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2543,14 +2548,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45740-2022</t>
+          <t>A 48544-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44846.33037037037</v>
+        <v>44452</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2562,13 +2567,8 @@
           <t>NORBERG</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2605,14 +2605,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48544-2021</t>
+          <t>A 45934-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44452</v>
+        <v>44441</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2662,14 +2662,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 38903-2022</t>
+          <t>A 6353-2022</t>
         </is>
  